--- a/data/hotels_by_city/Dallas/Dallas_shard_146.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_146.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="470">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Geoff S</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Very friendly welcome, very clean, incredible atmosphere.  Short walk to historic town. Great rodeo just around the block every weekend.              Los Vaquero’s Mexican food only a block away was also very good!! More</t>
   </si>
   <si>
+    <t>Peter M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r573472203-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -211,6 +217,9 @@
   </si>
   <si>
     <t>Enjoyed a 2 night stay in this new hotel. Service was excellent and the the staff were great. Clean room and very comfortable bed.Great bars and restaurants are just a short walk away. The hotel is little on the pricey side though.More</t>
+  </si>
+  <si>
+    <t>Scott C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r572565740-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
@@ -244,6 +253,9 @@
 Really?  This comes...Just came back from a weekend trip to FW and this hotel.  I would've given this hotel a 5-bubble rating if, gasp, they let us park our own car!  I am okay with the idea of paying for parking, that's fine.  But why they think we need mandatory valet parking is beyond me.  We have two toddlers, so getting things in and out of the car is, in a few words, a chore.  It would've been so much easier if they just let us park and let us unload/load the car at our own leisure.  What else?  I specifically asked if I can park my car then unload, and they insisted I have to unload right there and then.  I then asked if they can just park close by since we didn't get everything out of the car and need to make a trip upstairs first.  What did they do, they literally parked my car at the furthest spot possible (I know because our hotel room looked out straight at the empty parking lot, lol).What else, I kid you not, right next to the front door is a sign that says "NOTICE: you are parking and leaving your vehicle at your own risk.  Please lock all doors and windows after removing any property or valuables from the vehicle.  The hotel will not, in any event, be liable for loss or damages to your vehicle or property."Really?  This comes with Valet Parking? lolol.  How am I supposed to lock my own car if, let's see, I don't have my own key!?!?I have written a lot of reviews on Tripadvisor.com and I guarantee you that I've never been this negative on any hotels i've stayed at.The hotel itself is fine.  And the location is pretty perfect, especially if your plan includes going right across the street to Billy Bob's - you can literally stumble back to your hotel room even if you are half awake/drunk.So yeh, overall, nice hotel, stupid policy for mandatory parking.  Look, hotel management - if you are worried about people filling up your parking lot, just get one of those parking lot raising arm gates and let people swipe their keycard in and out of the parking lot!  Plenty of hotels in Fort Worth have that!More</t>
   </si>
   <si>
+    <t>Alisha A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r570620363-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -268,6 +280,9 @@
     <t>I had been driving for 8 hours grouchy and exhausted when I got to the hotel. Starved, I took to hotel bistro, it isn’t anything crazy but has a good selection for every diet. A young man named Adam gave his honest opinion on every item.  I’m a picky eater, he overly accommodated with my order.  At one point he was so attentively helpful I played to make it difficult for him and he held up.  I own 11 restaurants in Oregon and wish I could say all my employees were as helpful and knowledgeable of the menu and humans as he was. Customer service, and hospitality a triple A+More</t>
   </si>
   <si>
+    <t>J5579LIanam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r570478723-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -289,6 +304,9 @@
     <t>The hotel should recognize Jessica at the front desk for being professional and fixing someone else's error! I called 1.800.433.5677 to update my check in date only and my whole reservation was changed to 1day stay from 4night stay. Which I emailed CYfortworthAGM@LBAproperities.com and have yet to get a reply and that was a week ago!More</t>
   </si>
   <si>
+    <t>Angel S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r567488827-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -340,6 +358,9 @@
     <t>The hotel is very well located nearby the historic stockyards and Billy Bob’s Texas. All main attractions of this area are in walking distance, so that’s really cool. Staff was kind and efficient, and room cozy and clean - seems to be new or recently renovated. The only, but major, downside is the noise. My room window faced the North Main Street, which is really busy with pickups roaring large engines day and night. More</t>
   </si>
   <si>
+    <t>KatieG958</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r566491275-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -367,6 +388,9 @@
     <t>Nice, clean hotel. Exceptionally friendly/helpful staff (front desk, food/beverage, housekeeping). The lobby area is large enough to visit with friends and not feel like you are encroaching on others' space. Our room was spacious, bed comfortable. The entire hotel is wheelchair friendly (except when exciting the room - the door is quite heavy for someone in a wheelchair to pull open). Our room was near the main road - at night the motorcycles were obnoxiously loud. There were ear plugs in the room that did help.More</t>
   </si>
   <si>
+    <t>mmorgan72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r561337492-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -418,6 +442,9 @@
     <t>Hotel is always clean, great atmosphere, delicious food and amazing customer service.  Staff went above and beyond to make my birthday special last week.  Thank you Salvador, Balina, Makela and Lizzet!!More</t>
   </si>
   <si>
+    <t>Paul L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r555561345-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -445,6 +472,9 @@
     <t>First, MANDATORY $20 per night per car "valet" parking.  Courtyard, if you want more for the room, quote it in the price - don't hide fees as 'valet' parking.  Staff would not even let us drop our bags at the front without paying the fee, we had to park off site on an unlit street and walk our bags in.  Unhappy within minutes of arriving!Get to the room, Cheetos all over the floor and used bar of soap stuck to the side of the tub.  I'm not a huge germ a phobe, but pretty gross none the less.If a reviewer says the staff was even acceptable here, they are lying.  We stayed for a week and everyone we came across was terrible.  Asked for my coffee on ice at the cafe and that BLEW their minds, needed a manager to approve giving me a cup of ice to pour it on.  HUGE line 3 of the 4 days at the cafe, hate to say it but the staff is just uhhhh thick or whatever word you want to use. I hate to be rude but I'm confident you'll find the same.  So, if you don't mind a little filth, terrible staff, and you don't have a car with you - this is a great place to stay!More</t>
   </si>
   <si>
+    <t>AwesomeAndie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r554669377-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -469,6 +499,9 @@
     <t>Stayed here for a birthday celebration and was treated like royalty. I just can't say enough about the friendliness of the staff. What an accommodating group, they seriously bend over backwards to make sure their guests are happy.More</t>
   </si>
   <si>
+    <t>hopkinssr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r551234111-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -490,6 +523,9 @@
     <t>Reggi E was such a smiling face and a pleasure to see each day in the halls!In the lobby where you can get some awesome Coffees and Breakfast!  Loved the ambiance Lovena, Makyla, and Tiffany made there!!!  Such sweet people!More</t>
   </si>
   <si>
+    <t>Eric H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r548306751-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -514,6 +550,9 @@
     <t>Your standard Courtyard.  The staff is nice, the property is well kept and the rooms are comfortable.  They have a nice Bistro and the internet works well.  I stayed there 14 nights over a couple of weeks and didn't really have any issues.The locations is great for the Stockyards and Billy Bob's - a 5 minute walk tops - but its pretty removed from anything else in Fort Worth.  The location comes at a cost though - mandatory valet parking of $20 plus tips per night.  (The valets really do hustle there so I felt they earned their tips).  My guess is non-guests were filling up the lot so they were forced to add the valet.  Not a huge deal, but something to factor in when budgeting.More</t>
   </si>
   <si>
+    <t>Nicole A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r546490939-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -538,6 +577,9 @@
     <t>Traveled from the Houston area for a concert at Billy Bob’s and stayed here very clean and decorated nicely! Stephanie at the Front desk was very helpful in the information that I asked about the area and wonderful about giving directions to the places I was wanting to find. The location is perfect for walking distance to historic stockyards. All the staff are very friendly and welcoming would recommend anyone to stay here. Next time I return I plan to stay here again.  FYI: Parking is Valet only and does cost $20 each night More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r545161993-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -565,6 +607,9 @@
     <t>The staff here is Ahhhhmazing. Reggie, Lizzet, Lorena, Savannah, Johnathan, Steph and Rashanda. And all the staff. Thank You for a very enjoyable stay and all your kindness. Oh and the valet guys, Durrell and Kenny, awesome also. P. S. They all need raises!!! Next time we are here we will most definitely stay here. More</t>
   </si>
   <si>
+    <t>mikecox24</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r544625251-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -589,6 +634,9 @@
     <t>I enjoyed the hotel.  It was a great location in the historic stockyard and all that go with that cowboy area.  Very nice.  Staff was great, all very accommodating and super nice.  I was a little disappointed that the parking at the hotel was valet and pay only.  I was able to find a free parking right next to the hotel.  It did not seem a problem to others at the hotel, from what I saw all paid the $20 a night.  I parked on the street for free.More</t>
   </si>
   <si>
+    <t>SGB19592017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r543712346-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -610,6 +658,9 @@
     <t>I have stayed here for business purposes over last several weeks and the staff has been fabulous. Steph greets me by name when I check in so makes me feel at home. Lizzett has been great also. Rooms are comfortable and quiet. This is located in historic area of Ft Worth, convenient to great restaurants too. Overall has made business more of a pleasurable trip.More</t>
   </si>
   <si>
+    <t>Matt M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r542545073-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -634,6 +685,9 @@
     <t>Stayed here few days and I have to give it up to the bistro ladies Lorena and Savannah. They made my first night so fun!  Steph at the front desk is great! The check in was very swift. My stay was very pleasant. They are really great with all the guests, are always smiling and greeting every body.. good job ladies.More</t>
   </si>
   <si>
+    <t>shaned136</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r541667316-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -658,6 +712,9 @@
     <t>I had the pleasure to spend 3 nights at the Courtyard Fort Worth for a business conference. The staff were fantastic and friendly. The location to all that is the Historic Fort Worth precinct was excellent. A great location and facilities for all of your conference needs More</t>
   </si>
   <si>
+    <t>J F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r541255748-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -680,6 +737,9 @@
   </si>
   <si>
     <t>This hotel is great. Very well located. Nice rooms. Nice personnel. The gym and the pool are good. It is a good option to spend some days in Fort Worth. The price is not cheap. It’s 3 miles far from downtown. And there is a 30-minute car run from Dallas International Airport. More</t>
+  </si>
+  <si>
+    <t>Liz E</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r541252650-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
@@ -707,6 +767,9 @@
 Just...We chose this Marriott Courtyard location because of its proximity to Billy Bob’s. It was great to be able to walk across the street to our concert and then back again without having to worry about parking and traffic. Stephanie was our front desk respresentative during check-in.  She was very professional while making us feel genuinely welcomed. When she passed by us at the end of her day, she stopped to make sure that we were enjoying our stay.The next morning, Tiffany and Makayla served our group breakfast.  They worked well together to get our many orders served quickly, and checked in with us throughout the meal to make sure that we had everything that we needed. The staff was excellent, and all seemed to be juggling several tasks with ease.  My only suggestion to management is to perhaps increase staffing numbers during peak periods to minimize guest waiting time.  Having a Starbucks on site is definitely a welcomed treat, but if the Bistro cashier also has to make a custom beverage with a line of people waiting, it can test everyone's patience. (The person behind me in line audibly moaned when the person in front of me ordered two, custom drinks.)The hotel is very clean, the beds are comfortable, the elevator runs well, and the lobby decor is unique. I was especially delighted to see that the pool had a lift chair to accommodate differently-abled guests. Just as an FYI, the posted room rates does not include mandatory valet parking costs ($20). Twenty dollars is a hefty price and a somewhat unexpected expense for a Courtyard.Nonetheless, I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>cgal200</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r539556292-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -731,6 +794,9 @@
     <t>We had about 15 people gathered, after a wedding reception, in the bar.  The manager allowed them to continue to serve after their scheduled close time.  Savanna and Lizzet stayed late. Excellent service!More</t>
   </si>
   <si>
+    <t>Supermeals</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r538495319-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -755,6 +821,9 @@
     <t>Staff was texas friendly and welcoming.Girls at the bistro , Lorena and makayla, helped cure my hangover from Billy bobs with a smile and a great cup of coffee. You can walk to everything from this place and are only a short uber to AT&amp;T stadium .Go cowboys ! More</t>
   </si>
   <si>
+    <t>1rusty</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r537517191-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -782,6 +851,9 @@
     <t>Arrived after 18 hour flight. At 10.05  told no hot drinks no tea no coffee !! All closed down. Drinks when we had them next day came in paper cups ! Even upstairs we had cheap paper cups.  Too wash our teeth paper !! No safe in rooms ! I am not going down to desk to ask for my money. Then getting in a lift someone may follow me Pool was good but closed as a guy making a new path And wow the noise.  From 5 in morning. Cars trucks and more  needed to have Tripple glazing   And music til 2.30 in the morning just outside on a weekend  only nice staff member was behind the bar she had lovely long hair and glasses.   Valet parking ,totally unnecessary, guys  park the cars 50 feet from main doorMore</t>
   </si>
   <si>
+    <t>kikitup</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r535143938-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -806,6 +878,9 @@
     <t>Shame on Marriott! I am so disappointed in this chain. $300+ a night, no complementary breakfast of any kind. WTF! I got a text at 3 AM for a $10 charge, which the hotel could not explain. "Automatic... don't worry, it will drop off". Had "do not disturb" on the door, yet the maid banged at the door hours before check out. Did I mention $29 for parking? I'm a huge fan of Marriott and stay there every opportunity. This hotel is beautiful and the room was very nice and convenient to Billy Bob's. but this was over the topMore</t>
   </si>
   <si>
+    <t>inFlightFun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r535138534-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -821,6 +896,9 @@
     <t>Hotel is located in the Stockyard. Walking distance to the Rodeo, various restaurants &amp; bars.  Lots of night life in this area.  Parking your car here will cost you $20 per night.  A nice quiet bar is located in the lobby.  Nice workout facility.  We had a quiet room on the 1st floor with a view of the swimming pool. It was too cold to swim. Overall nice, clean, quiet hotel. $20 per night to park car is preventing me from giving 5 stars.More</t>
   </si>
   <si>
+    <t>steveopt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r533495629-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -845,6 +923,9 @@
     <t>We stayed here for two nights while visiting the Stockyards.  The hotel appears brand new, and they took the time to decorate it to suit the Stockyards location.  We were surprised to see such a themed hotel for the Courtyard brand.  The rooms were very clean, and the pool was great.  There was a bit of noise at night from the bars nearby, however, if you are staying near the stockyards, you should expect some night noise anyway.  I am sure every other hotel in the area experiences the same thing.More</t>
   </si>
   <si>
+    <t>ladyomaha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r533200594-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -863,6 +944,9 @@
     <t>Great location. One block from the Stockyards offering great restaurants and bars.  Safe walking to and fro.  Clean rooms and staff was friendly.  Small coffee shop in lobby for coffee and breakfast for purchase.  Parking is ONLY valet service but only $20 a day.More</t>
   </si>
   <si>
+    <t>metntex</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r532965306-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -881,6 +965,9 @@
     <t>Nice enough property. A newer Courtyard concept. We were a tad put out with the service. Called ahead to ask for a high floor room and was put on hold for 15+ minutes and called back and was put on hold again.Bed very uncomfortable and if your room faces Main St. be prepared for no sleep as traffic is heavy all night long. Nice shower. Room for two. Good pressure and water hot. Good location to Stockyards.Don’t think we’ll stay here again. Nice Marriott properties a few miles south in downtown FTW. PS. Dear Manager, please don’t respond with your standard clicheish response. Thanks. More</t>
   </si>
   <si>
+    <t>Jessica B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r525106735-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -902,6 +989,9 @@
     <t>We were in town for a Cowboys game and wanted tobstag somewhere with some Texas spirit. The hotel is modern, with really nice decor, even surprising for a Courtyard. The staff was wonderful. They have a limited breakfast which was fine for us. There isbrequired valet, but if you're willing you walk a block, you can park on the street. The best part was it was across the street from the Stockyards! We went back 3 times between the cattle drive, dinner and going out to bars. We easily drove to local highways to get to other places, like AT&amp;T and the baseball stadium. Friends that stayed outside, for a few dollars cheaper were really impressed at the location and are staying here next time. It will be my go to - as well.More</t>
   </si>
   <si>
+    <t>suerobhodge</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r524202792-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -920,12 +1010,18 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>Paul M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r521529567-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>521529567</t>
   </si>
   <si>
+    <t>Pete B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r521214323-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -941,6 +1037,9 @@
     <t>I can not fault this hotel. From the moment we entered we were met with smiles from every single member of staff that we saw.Rooms are very spacious, clean and comfortable. Public areas are bright, spacious and clean.Having the Starbucks is an added bonus.Ideal location for the Stockyards which is just a few minutes walk away.</t>
   </si>
   <si>
+    <t>lmeador</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r520921421-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -959,6 +1058,9 @@
     <t>Booked online for the Florida vs Michigan kickoff game in September of 2017, and was surprised at the reasonable rate. We called in advance to ensure that the hotel was within walking distance of the "Exchange - Stockyard area," and they assured us it was...it is! The hotel is about 300 yards or so from Billy Bobs and about a block from the main drag of the Stockyards - btw, the White Elephant is a great bar over there - ask for Ox! Anyway, the hotel is very new - less than a year, has great room size, all the amenities, very nice bathrooms, bar, work-out room, pool, serves breakfast etc. etc. The staff is SUPER friendly, from valet to front desk to cleaning staff - all top notch. This isn't a 5-star; it's not a 4-star, but if you are looking for a super-clean, super-convenient; super-nice hotel near the Stockyards, this is it. We're very happy we found it. I think we paid about $165/night +/-? oh, and bring your key when you leave at night; they lock the doors - we appreciated that, but you need your room key to get in the building More</t>
   </si>
   <si>
+    <t>Rowlett9105</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r508502141-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1004,6 +1106,9 @@
     <t>We stayed at this hotel while in town for a show at Billy Bob's. The hotel is right across the street from the venue, so it was perfect. I loved this place! The entire property, from the lobby to the rooms, is beautiful. Everything is kept extremely clean. I know the place isn't that old, but the room looked like it was brand new. I also loved the layout of the room - the bed was against the bathroom wall instead of the adjoining room. There are nice features, like USB charging ports in the outlets and YouTube access on the TV. The bathroom is VERY nice. And have I mentioned how clean it all was? Every staff member that we came in contact with was super friendly. They all made us feel welcome and appreciated. There was very little noise from outside the room, so I slept well. We will definitely be back for a stay to explore the Stockyards in the next few months. I stay in hotels all the time. This one is my favorite by far. More</t>
   </si>
   <si>
+    <t>skibumal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r501435609-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1028,6 +1133,9 @@
     <t>Stayed for one night on a recent business trip to the Dallas area. Wanted to enjoy an evening in the Historic Stockyards area. Check in was efficient with very friendly service. Room was very nice, clean and comfortable. Walked to the old Stockyards area and enjoyed a wonderful evening and being able to walk back to the hotel after a few pops in the local cowboy bars. Great place - thanks !More</t>
   </si>
   <si>
+    <t>lana444</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r500306717-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1046,6 +1154,9 @@
     <t>Had one day before flying out of DFW, so decided to spend it at the Stockyards.We had a wonderful stay at the Courtyard @ Stockyards. Ice cold air and very clean - everyone very helpful and friendly. Near Billy Bob's and just a short, 2 block walk to many eateries, shops, and bars. Don't miss this area on your next TX stay!More</t>
   </si>
   <si>
+    <t>sherri s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r500240886-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1061,6 +1172,9 @@
     <t>Great hotel! Within walking distance to stockyards and Billy Bob's is right across the street. Yes, you pay for valet service, but it is well worth every penny. Very friendly and helpful front desk staff. The young lady working at the Bistro Sunday am., gave me my coffee on the house. Thank you!More</t>
   </si>
   <si>
+    <t>Mooneyes2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r500193425-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1076,6 +1190,9 @@
     <t>We had multiple reasons for coming to Ft Worth &amp; one was to hang out at the Stockyards.  Glad we did.....FUN!  This Courtyard is located very nicely for a block walk to the Main St. shops and restaurants and of course, the Stock yards.  Being a new hotel it was clean and customer service was good.  I do see all the negative on the valet parking however I do understand why Courtyard does it.  I appreciate it for guaranteed parking location as well as safety.  There is an option to park on the far parameters of the hotel but did not look safe to me!  The price could be a little less but was something I didn't mind.  Rooms are big and I like that.  We have paid much more at boutique hotels and rooms are very small.  Clean, comfortable and from our third floor window we had a beautiful sunset. Big walk in shower too. I do have to say though....walls are a bit thin.  (Note: you do sign a "no party" form with you arrive).  We were awakened by our neighbors at 1:00 AM.  It stopped once I lightly tapped on wall.  I did not indulge in the Bistro, but looked like they had light options for breakfast as well as happy hour. Starbucks coffee!  Eclectic Western décor throughout so was fun to see.  Enjoyed our stay and hope to come back soon.  I also requested a room...We had multiple reasons for coming to Ft Worth &amp; one was to hang out at the Stockyards.  Glad we did.....FUN!  This Courtyard is located very nicely for a block walk to the Main St. shops and restaurants and of course, the Stock yards.  Being a new hotel it was clean and customer service was good.  I do see all the negative on the valet parking however I do understand why Courtyard does it.  I appreciate it for guaranteed parking location as well as safety.  There is an option to park on the far parameters of the hotel but did not look safe to me!  The price could be a little less but was something I didn't mind.  Rooms are big and I like that.  We have paid much more at boutique hotels and rooms are very small.  Clean, comfortable and from our third floor window we had a beautiful sunset. Big walk in shower too. I do have to say though....walls are a bit thin.  (Note: you do sign a "no party" form with you arrive).  We were awakened by our neighbors at 1:00 AM.  It stopped once I lightly tapped on wall.  I did not indulge in the Bistro, but looked like they had light options for breakfast as well as happy hour. Starbucks coffee!  Eclectic Western décor throughout so was fun to see.  Enjoyed our stay and hope to come back soon.  I also requested a room away from the street as recommended in previous reviews and it was quiet.More</t>
   </si>
   <si>
+    <t>Ge0rgetravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r496826117-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1103,6 +1220,9 @@
     <t>Stayed here after having a change in travel plans and going to Fort Worth airport instead of Dallas DFW.  We were able to get rooms at this Marriott Courtyard at the last minute with no problem, and saved about one hundred dollars per night per room over what we were going to pay in Dallas! This is a newer looking hotel in the historic Stockyards area of Fort Worth. There are lots of eating places, especially steak houses as well as shopping and bars all within easy walking distance to this hotel. The rooms are clean and modern with everything you would need. Overall, a great stay and a comfortable nights sleep!!More</t>
   </si>
   <si>
+    <t>JB W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r491512641-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1121,6 +1241,9 @@
     <t>This is ONE HORRIBLE hotel experience. From the rude valet, the unprofessional front desk clerk, the non-existent bag porter for help. Baggage carts stuck together. Hard to pull apart to use. No help available. Generally unfriendly staff. No one greeted you. No one acknowledged my presence. I sat in the bar area while waiting for my friends to arrive. They had been out for the day. Their room had not been cleaned. Bed not changed. Did not vacuum. Trash cans full. Bathroom not cleaned. Dirty washcloths in shower. Toothpaste in sink. Called down to report room not cleaned. Desk clerk never sent any one up. She argued with my friend and made excuses. She ended cleaning up the room before she left. I stayed with the baby. I also called for a clean sheet for the crib. Didn't get one. Called half hour later and asked for the manager. Desk clerk said she could  help. RIGHT! She made excuses.  Said housekeeping was closed. I stated again I wanted a clean sheet. In a few moments she brought one. My parking ticket was not validated when I asked. I had gone there to sit with the baby for a few hours. THIS HOTEL GETS THE REWARD FOR "THIS SUCKS'". For the price paid for this room, IT IS A NASTY PLACE TO STAY! I just want everyone to know.More</t>
   </si>
   <si>
+    <t>jonijmk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r487998637-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1142,6 +1265,9 @@
     <t>We stayed here three nights in early May mainly for the great location for touring the historic stockyard area.  If going to Billy Bob's, the location is especially good. The hotel is newly built so everything is fresh, clean and modern.  Staff at the hotel was definitely warm and helpful.  All seemed eager to make our stay a good one.  Our king room seemed a bit small although the bathroom itselfwas large. The bed was clean and comfortable. The walls definitely are thin!! We could hear the neighboring guests talking and their tv going.  There is a small area by the front desk that sells various food items which although convenient are extremely overpriced. No need to take advantage of the guests.  Apparently the parking is by valet only and is not free.  Another way to take advantage of guests.All in all the stay was fine.  More pros than cons.More</t>
   </si>
   <si>
+    <t>HikeUpTrails</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r487983798-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1157,6 +1283,9 @@
     <t>Good:- Brand new hotel. Beautifully decorated lobby, reception and rooms with Texas style and modern furniture.  Awesome room and bathroom design; well lit; lots of places to work comfortably; lots of power outlets. Very clean. Quiet rooms. Needs improvement:- Bedsheets are scratchy; use better thread count. No body lotion in room, reception does not have any either and they don't sell any body lotion either! No stores in convenient walking distance where I could buy it. Lobby coffee store only had whole milk (it was lunch time and they ran out of milk). $200 a night is steep for a Courtyard. Area around hotel is little sketch; maybe after it's developed more it will be more lively and it will appear more inviting. More</t>
   </si>
   <si>
+    <t>Marde L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r468115832-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1184,6 +1313,9 @@
     <t>Ideally located one block from the famous Stockyards where there's fun every night.  The hotel is new and well decorated.  The staff is friendly and accommodating.  My room was on the 3rd floor and faced the pool area.  While I could hear the occasional police siren from my room, I could not hear the revelers at the Stockyards.  The room and bathroom are large and included a microwave, refrigerator and coffee maker.  The bathroom has a great walk in shower.  The first floor has a bar/restaurant which is very nice, a seating area and an outdoor pool.  The gym has several treadmills, elliptical gliders and some free weights.   There is a mandatory $20.00 valet parking fee per night for registered guests, which is the same as they charge anyone who wants to park while visiting the area.  This seems excessive and guests shouldn't have to pay to park.  The hotel is new, but one of the elevators was out of service for my entire visit.  The one that was working was VERY slow...  All things considered, this is a good choice if you are in the area.More</t>
   </si>
   <si>
+    <t>bus_visitor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r462314312-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1211,6 +1343,9 @@
     <t>The staff here were extremely friendly and helpful. The hotel is quite new and it is clean with a very nice modern look. For going to the stockyards, it is a great location - a short walk away.We had 2 major problems. One might be due to its newness. There is no complimentary coffee in the lobby however they do have a coffee bar. We will willing to pay. I did not anticipate it would take 30 minutes to get coffee. Apparently, there was a long list of orders ahead of us and the server did not mention a wait to us. I got really grumpy waiting 30 minutes for my morning coffee. Especially after a bad night.The second problem is a design decision flaw. The walls just do not have enough sound proofing. If you're neighbors are quiet (or the rooms are vacant), no problem. We had neighbors who were chatty - very chatty. They were not using loud voice or shouting at all. Nonetheless, the walls provided so little sound insulation we heard everything  while they talked well beyond our desired sleep time.More</t>
   </si>
   <si>
+    <t>tomuchtravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r460211503-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1227,6 +1362,9 @@
   </si>
   <si>
     <t>this hotel is new. So great. Wasn't crowded. Rooms are very large. I would worry about the weekends and the "partying" crowd. Nice fire pit in the back and poolMandatory valet a bit expensive.bartender couldn't make a cosmopolitan?friendly staff. NO WATER PRESSURE AT ALL!!!!More</t>
+  </si>
+  <si>
+    <t>Rick S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r459668944-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
@@ -1277,6 +1415,9 @@
 If you're staying in the area I would DEFINITELY recommend you staying here on your next stay....We stayed here while see a show at Billy Bob's.  The location was GREAT!  We loved the convenience of where it was located in relationship to Billy Bob's.  As it turns out the hotel had just opened and EVERYTHING was new.  We had a great stay and was very please with everything.  Being that I stay in hotels often I would give other travelers the following advice:1. Parking - we were forced to valet park and it cost us $20.  I'm not sure the policy on this but we were running late and we needed to get into our room and over to the show.  Find out if this is mandatory or if there is a way to park your own car for free.2. If you get a hotel room facing the street beware it might be a little loud.  Nothing on the hotel's end.  Just a busy street in a busy part of town where alot of people are out and about.  Not a bad thing...just a heads up.3. Our reservation did not come with a complimentary breakfast.  You might be able to get that included but we weren't.  Just a heads up in the chance you wake up hungry!  (There are a ton of places to eat AND the hotel had a nice looking bistro to eat at)If you're staying in the area I would DEFINITELY recommend you staying here on your next stay.  The staff was GREAT!  The room was GREAT!  There were just some odd things that I didn't expect but they won't stop me from staying there again in the future.More</t>
   </si>
   <si>
+    <t>leenlogan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r457018458-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1293,6 +1434,9 @@
   </si>
   <si>
     <t>Stayed here on opening day as well, for one night. The hotel is brand new, the rooms and furniture were amazing with great Texas decor. Didn't love the idea of valet-only at the hotel but it is in downtown afterall and property is scarce in places like this. The entire valet staff was amazing (Darrin-manager), greeted us and answered all questions and was very familiar with things to do. I appreciate it greatly and love that they have valet. Hope other hotels in the area follow suit. Felt secure knowing my vehicle is watched after 24/7. Will certainly be back. Great staff altogether!More</t>
+  </si>
+  <si>
+    <t>Delicio</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r456900632-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
@@ -1812,43 +1956,47 @@
       <c r="A2" t="n">
         <v>65329</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>127506</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1860,56 +2008,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65329</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>10166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1921,56 +2073,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65329</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>657</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1988,56 +2144,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65329</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>127507</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2049,56 +2209,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65329</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>127508</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2114,56 +2278,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65329</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>23536</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2175,13 +2343,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="X7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
@@ -2194,37 +2362,37 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2236,56 +2404,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65329</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>197</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2303,56 +2475,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="X9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65329</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>127509</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="O10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2364,13 +2540,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="X10" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
@@ -2383,37 +2559,37 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s">
+        <v>136</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>128</v>
       </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>120</v>
-      </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2429,56 +2605,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="X11" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65329</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>13290</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -2496,56 +2676,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65329</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>127510</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="O13" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2563,56 +2747,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65329</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>127511</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2628,56 +2816,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="X14" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Y14" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65329</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>2415</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="J15" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2695,47 +2887,51 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="X15" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="Y15" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65329</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>58952</v>
+      </c>
+      <c r="C16" t="s">
+        <v>176</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="J16" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="K16" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
@@ -2752,56 +2948,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="X16" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="Y16" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65329</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>185</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="J17" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="K17" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="O17" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2813,56 +3013,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="X17" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="Y17" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65329</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>127512</v>
+      </c>
+      <c r="C18" t="s">
+        <v>195</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="J18" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="O18" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -2880,56 +3084,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="X18" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="Y18" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65329</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>127513</v>
+      </c>
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" t="s">
+        <v>206</v>
+      </c>
+      <c r="J19" t="s">
+        <v>207</v>
+      </c>
+      <c r="K19" t="s">
         <v>189</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
-        <v>190</v>
-      </c>
-      <c r="J19" t="s">
-        <v>191</v>
-      </c>
-      <c r="K19" t="s">
-        <v>175</v>
-      </c>
       <c r="L19" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2941,56 +3149,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="X19" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="Y19" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65329</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>12010</v>
+      </c>
+      <c r="C20" t="s">
+        <v>212</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="J20" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="K20" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3002,56 +3214,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="X20" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65329</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>127514</v>
+      </c>
+      <c r="C21" t="s">
+        <v>221</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3063,56 +3279,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="X21" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="Y21" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65329</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>31885</v>
+      </c>
+      <c r="C22" t="s">
+        <v>230</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="J22" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="K22" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="L22" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="O22" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3124,56 +3344,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="X22" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="Y22" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65329</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>13936</v>
+      </c>
+      <c r="C23" t="s">
+        <v>239</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="J23" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="K23" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="O23" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3189,56 +3413,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="X23" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="Y23" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65329</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>127515</v>
+      </c>
+      <c r="C24" t="s">
+        <v>245</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="J24" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="O24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3256,56 +3484,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="X24" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="Y24" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65329</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>127516</v>
+      </c>
+      <c r="C25" t="s">
+        <v>254</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="J25" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="K25" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="L25" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="O25" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3317,56 +3549,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="X25" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="Y25" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65329</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>127517</v>
+      </c>
+      <c r="C26" t="s">
+        <v>263</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="J26" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="K26" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="O26" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3378,47 +3614,51 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="X26" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="Y26" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65329</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>127518</v>
+      </c>
+      <c r="C27" t="s">
+        <v>273</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="J27" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="K27" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="L27" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
@@ -3435,56 +3675,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="X27" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="Y27" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>65329</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>127519</v>
+      </c>
+      <c r="C28" t="s">
+        <v>282</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="J28" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="K28" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="L28" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="O28" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3496,56 +3740,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="X28" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="Y28" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>65329</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>127520</v>
+      </c>
+      <c r="C29" t="s">
+        <v>288</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="J29" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="K29" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="L29" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="O29" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3561,56 +3809,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="X29" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="Y29" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>65329</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>127521</v>
+      </c>
+      <c r="C30" t="s">
+        <v>297</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="J30" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="K30" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="L30" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="O30" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3626,47 +3878,51 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="X30" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="Y30" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>65329</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>68819</v>
+      </c>
+      <c r="C31" t="s">
+        <v>304</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="J31" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="K31" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="L31" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
@@ -3683,56 +3939,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="X31" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="Y31" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>65329</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>1433</v>
+      </c>
+      <c r="C32" t="s">
+        <v>311</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="J32" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="K32" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="L32" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="O32" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3746,50 +4006,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>65329</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>127522</v>
+      </c>
+      <c r="C33" t="s">
+        <v>319</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="J33" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="K33" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="L33" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="O33" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -3809,32 +4073,36 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>65329</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>7271</v>
+      </c>
+      <c r="C34" t="s">
+        <v>326</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="J34" t="s"/>
       <c r="K34" t="s"/>
@@ -3851,51 +4119,52 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>65329</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>68254</v>
+      </c>
+      <c r="C35" t="s">
+        <v>329</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="J35" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="K35" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="L35" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="O35" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -3915,50 +4184,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>65329</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>127523</v>
+      </c>
+      <c r="C36" t="s">
+        <v>335</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="J36" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="K36" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="L36" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="O36" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3972,50 +4245,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>65329</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>63966</v>
+      </c>
+      <c r="C37" t="s">
+        <v>342</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="J37" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="K37" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="L37" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="O37" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4033,56 +4310,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="X37" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="Y37" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>65329</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>185</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="J38" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="K38" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="L38" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="O38" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4094,56 +4375,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="X38" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="Y38" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>65329</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>127524</v>
+      </c>
+      <c r="C39" t="s">
+        <v>358</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="J39" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="K39" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="L39" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4161,56 +4446,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="X39" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="Y39" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>65329</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>127525</v>
+      </c>
+      <c r="C40" t="s">
+        <v>367</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="J40" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="K40" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="L40" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="O40" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -4228,56 +4517,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="X40" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="Y40" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>65329</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>127526</v>
+      </c>
+      <c r="C41" t="s">
+        <v>374</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="J41" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="K41" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="L41" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="O41" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -4293,56 +4586,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="X41" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="Y41" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>65329</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>127527</v>
+      </c>
+      <c r="C42" t="s">
+        <v>380</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="J42" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="K42" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="L42" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="O42" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4360,56 +4657,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="X42" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="Y42" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>65329</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>92184</v>
+      </c>
+      <c r="C43" t="s">
+        <v>386</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="J43" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="K43" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="L43" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4425,56 +4726,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="X43" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="Y43" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>65329</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>51225</v>
+      </c>
+      <c r="C44" t="s">
+        <v>396</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="J44" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="K44" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="L44" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4486,56 +4791,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="X44" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="Y44" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>65329</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>127528</v>
+      </c>
+      <c r="C45" t="s">
+        <v>403</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="J45" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="K45" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="L45" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="O45" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
@@ -4553,56 +4862,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="X45" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="Y45" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>65329</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>127529</v>
+      </c>
+      <c r="C46" t="s">
+        <v>411</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="J46" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="K46" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="L46" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4614,56 +4927,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="X46" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="Y46" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>65329</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>48160</v>
+      </c>
+      <c r="C47" t="s">
+        <v>417</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="J47" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="K47" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="L47" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -4681,56 +4998,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="X47" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="Y47" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>65329</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>127530</v>
+      </c>
+      <c r="C48" t="s">
+        <v>427</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="J48" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="K48" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="L48" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -4746,56 +5067,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="X48" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="Y48" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>65329</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>127531</v>
+      </c>
+      <c r="C49" t="s">
+        <v>437</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="J49" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="K49" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="L49" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4811,56 +5136,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="X49" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="Y49" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>65329</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>5140</v>
+      </c>
+      <c r="C50" t="s">
+        <v>444</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="J50" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="K50" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="L50" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="O50" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -4878,13 +5207,13 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="X50" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="Y50" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51">
@@ -4897,37 +5226,37 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="J51" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="K51" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="L51" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="O51" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -4945,56 +5274,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="X51" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="Y51" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>65329</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>127532</v>
+      </c>
+      <c r="C52" t="s">
+        <v>457</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="J52" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="K52" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="L52" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="O52" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5006,56 +5339,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="X52" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="Y52" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>65329</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>127533</v>
+      </c>
+      <c r="C53" t="s">
+        <v>464</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="J53" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="K53" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="L53" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5067,13 +5404,13 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="X53" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="Y53" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_146.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_146.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="696">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,396 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Geoff S</t>
-  </si>
-  <si>
-    <t>06/07/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r606816936-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>10728538</t>
+  </si>
+  <si>
+    <t>606816936</t>
+  </si>
+  <si>
+    <t>08/15/2018</t>
+  </si>
+  <si>
+    <t>Right across the street from Billy Bob’s</t>
+  </si>
+  <si>
+    <t>I hosted a small meeting at this Courtyard.  They offer valet parking only and they serve Starbucks coffee.  The hotel has 4 stories and a pool.  Billy Bob’s is right across the street and the stockyard restaurants and shopping are only one block away.  If you are a Marriott loyalist or simply looking for an affordable hotel in the Stockyards, this hotel is the choice.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r598850831-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>598850831</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Very friendly staff and clean hotel</t>
+  </si>
+  <si>
+    <t>Only thing that was negative. Air Conditioner in room 321 seems to be under sized for the outside temps.  Unit blew cold but couldn't cool down the room until about 4 am.  Was a very hot night.  They did offer to move me when I called down but they didn't make me think it would be any cooler in any other rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Salvador P, Guest Relations Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Only thing that was negative. Air Conditioner in room 321 seems to be under sized for the outside temps.  Unit blew cold but couldn't cool down the room until about 4 am.  Was a very hot night.  They did offer to move me when I called down but they didn't make me think it would be any cooler in any other rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r597413901-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>597413901</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Spoiled Rotten!</t>
+  </si>
+  <si>
+    <t>From beginning to end, this hotel and its staff was AWESOME! They went above and beyond to make our stay great, even seeking us out to check on our children and give them a fun toy and make sure our stay was more than satisfactory!A special thanks to Patience, Mikaela, Dauisela, Brian And Sal! WE WILL BE BACK! Sincerely, Phil and Kelly BallardMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Salvador P, Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>From beginning to end, this hotel and its staff was AWESOME! They went above and beyond to make our stay great, even seeking us out to check on our children and give them a fun toy and make sure our stay was more than satisfactory!A special thanks to Patience, Mikaela, Dauisela, Brian And Sal! WE WILL BE BACK! Sincerely, Phil and Kelly BallardMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r597106486-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>597106486</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outstanding staff and property </t>
+  </si>
+  <si>
+    <t>This is my first time staying at this property and it exceeded all my expectations.  I had excellent service from every person I interacted with from the valet to the Manager who checked me in.  This is a very clean update hotel that I highly recomend and will definitely be back again on my next visit.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r596378985-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>596378985</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anniversary Weekend </t>
+  </si>
+  <si>
+    <t>This place is great. Very clean and comfortable. It is in an area with limited parking so you must valet park ($20/day). I would give 5 stars except that our room faced the street and we did some noise from idiots squealing their tires at 2:00 am. The bartender needs a little more experience. We ordered 2 drinks off their “classic cocktails” menu and it took him nearly 10 minutes to make them. They were great once we got them. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>This place is great. Very clean and comfortable. It is in an area with limited parking so you must valet park ($20/day). I would give 5 stars except that our room faced the street and we did some noise from idiots squealing their tires at 2:00 am. The bartender needs a little more experience. We ordered 2 drinks off their “classic cocktails” menu and it took him nearly 10 minutes to make them. They were great once we got them. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r596269907-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>596269907</t>
+  </si>
+  <si>
+    <t>07/14/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brilliant stay and excellent staff </t>
+  </si>
+  <si>
+    <t>Highly recommend this hotel. From check in we were greeted by the extremely polite and helpful manager (I’m sorry I have forgot his name but hoping he will remember helping us!)Our room was lovely, spotlessly clean and lovely decor and the full hotel was clean/ new and very quiet. We had drinks at the bar and the bar staff were really helpful recommending drinks and really chatty.We sat outside in the sunshine and we didn’t use the pool but the pool and the pool area were again really clean and the hotel was quiet, no noise or over crowding...Would highly recommend this hotel. We loved the lobby decor with the cowboy boots and chairs...Unfortunately during my stay I got bitten badly by mosquitoes (not in the hotel- while out and about touring) I spoke with the same manager from check in and he couldn’t have been more helpful!We recommended pharmacies, helped get me lotions and recommended remedies that would help my bites. We found him an asset to the hotel and would like to thank him for all of his help he gave us.We would love to come back one day!Thank you for a great trip MoreShow less</t>
+  </si>
+  <si>
+    <t>Highly recommend this hotel. From check in we were greeted by the extremely polite and helpful manager (I’m sorry I have forgot his name but hoping he will remember helping us!)Our room was lovely, spotlessly clean and lovely decor and the full hotel was clean/ new and very quiet. We had drinks at the bar and the bar staff were really helpful recommending drinks and really chatty.We sat outside in the sunshine and we didn’t use the pool but the pool and the pool area were again really clean and the hotel was quiet, no noise or over crowding...Would highly recommend this hotel. We loved the lobby decor with the cowboy boots and chairs...Unfortunately during my stay I got bitten badly by mosquitoes (not in the hotel- while out and about touring) I spoke with the same manager from check in and he couldn’t have been more helpful!We recommended pharmacies, helped get me lotions and recommended remedies that would help my bites. We found him an asset to the hotel and would like to thank him for all of his help he gave us.We would love to come back one day!Thank you for a great trip More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r592793181-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>592793181</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>Very nice location</t>
+  </si>
+  <si>
+    <t>The hotel was very nicely located as there was much to do in the area. The pool was amazing and the hotel rooms were very well kept. I did however not enjoy the mandatory valet service. I do understand it is required sometimes but imagine my unhappiness when I payed the extra for my vehicle to be safe and close by, just to see the valet run around the block to a unsecure lot and I am paying the same amount thinking it would be in the hotel lot. Overall very nice hotel and enjoyed my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Salvador P, Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded July 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2018</t>
+  </si>
+  <si>
+    <t>The hotel was very nicely located as there was much to do in the area. The pool was amazing and the hotel rooms were very well kept. I did however not enjoy the mandatory valet service. I do understand it is required sometimes but imagine my unhappiness when I payed the extra for my vehicle to be safe and close by, just to see the valet run around the block to a unsecure lot and I am paying the same amount thinking it would be in the hotel lot. Overall very nice hotel and enjoyed my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r592230334-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>592230334</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>Great 75th Birthday Weekend for Dad!</t>
+  </si>
+  <si>
+    <t>The hotel is in a perfect location. No need for a car. We walked everywhere. Great people at the front desk. Friendly and very helpful. Hotel is clean and modern. We did not eat breakfast here because we woke up too late. Great amenities including bottle water, printers and computers. Some of our party used pool and outdoor area and fully enjoyed it. Would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Salvador P, Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded July 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2018</t>
+  </si>
+  <si>
+    <t>The hotel is in a perfect location. No need for a car. We walked everywhere. Great people at the front desk. Friendly and very helpful. Hotel is clean and modern. We did not eat breakfast here because we woke up too late. Great amenities including bottle water, printers and computers. Some of our party used pool and outdoor area and fully enjoyed it. Would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r592035173-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>592035173</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>Wedding day</t>
+  </si>
+  <si>
+    <t>Had a blast here for my wedding! It seemed like there were a couple of other weddings that were going on but Erin and Jessica really went out of there way to help provide my and my husband a great stay with some memorable goodies! They rock. Excellent location to everything especially since we didn’t have A vehicle.MoreShow less</t>
+  </si>
+  <si>
+    <t>Salvador P, Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded July 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2018</t>
+  </si>
+  <si>
+    <t>Had a blast here for my wedding! It seemed like there were a couple of other weddings that were going on but Erin and Jessica really went out of there way to help provide my and my husband a great stay with some memorable goodies! They rock. Excellent location to everything especially since we didn’t have A vehicle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r586917866-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>586917866</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Its OK</t>
+  </si>
+  <si>
+    <t>Hotel seems fairly new. Rooms are accommodating. TV remote volume jumps in increments of 4, which translates min volume or loud. Breakfast with hotel is a complete hassle, every morning same issue reg how many vouchers to give. To insinuate I'm only entitled to 2 breakfasts with 3 occupants. Rooms near main street are loud. They included ear plugs and sleep sound app to download. Plus is that its literally 1 block from stockyards. Valet parking @ hotel. Hotel is well maintained. MoreShow less</t>
+  </si>
+  <si>
+    <t>Salvador P, Guest Relations Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded June 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2018</t>
+  </si>
+  <si>
+    <t>Hotel seems fairly new. Rooms are accommodating. TV remote volume jumps in increments of 4, which translates min volume or loud. Breakfast with hotel is a complete hassle, every morning same issue reg how many vouchers to give. To insinuate I'm only entitled to 2 breakfasts with 3 occupants. Rooms near main street are loud. They included ear plugs and sleep sound app to download. Plus is that its literally 1 block from stockyards. Valet parking @ hotel. Hotel is well maintained. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r586084592-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>586084592</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Nice new hotel</t>
+  </si>
+  <si>
+    <t>This hotel is a great location only a short walk to the stockyards.  The hotel is nice.  It’s seems new, very clean, tastefully decorated in western decor.  It’s fun. The pool is nice.  The only con is that they only offer valet parking in the hotel lot $20 a day.  We found street parking by the back entrance of the hotel so we were fine with that.Overall it is a nice place and we would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Salvador P, Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded June 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is a great location only a short walk to the stockyards.  The hotel is nice.  It’s seems new, very clean, tastefully decorated in western decor.  It’s fun. The pool is nice.  The only con is that they only offer valet parking in the hotel lot $20 a day.  We found street parking by the back entrance of the hotel so we were fine with that.Overall it is a nice place and we would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r584671138-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>584671138</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>Saturday June 2 - Premium Recycled Parts Sales Seminar</t>
+  </si>
+  <si>
+    <t>I was in contact during the evening prior to arrival the next day with a wonderful front desk clerk named "Jessica" was a very gracious host on the phone giving excellent tips on getting situated and ready for the seminar. In addition, the two ladies on duty that I met at the front desk were equally service-oriented.The meeting room was clean and well-organized and the food served was excellent. The hotel provides bright, sunny views 360 degrees. I saw other obviously satisfied customers constantly passing by to utilize the exercise room, the pool and the dining facilities. Great place to stay while in Fort Worth, Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in contact during the evening prior to arrival the next day with a wonderful front desk clerk named "Jessica" was a very gracious host on the phone giving excellent tips on getting situated and ready for the seminar. In addition, the two ladies on duty that I met at the front desk were equally service-oriented.The meeting room was clean and well-organized and the food served was excellent. The hotel provides bright, sunny views 360 degrees. I saw other obviously satisfied customers constantly passing by to utilize the exercise room, the pool and the dining facilities. Great place to stay while in Fort Worth, Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r581438775-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>581438775</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>First family trip to Cowtown!</t>
+  </si>
+  <si>
+    <t>Excellent hotel and experience on our first family trip to Cowtown! Perfect location, clean, modern and great staff! Would thoroughly recommend! A really nice feel to a small hotel that made the stay very friendly......the Texan welcome was excellent!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Salvador P, Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Excellent hotel and experience on our first family trip to Cowtown! Perfect location, clean, modern and great staff! Would thoroughly recommend! A really nice feel to a small hotel that made the stay very friendly......the Texan welcome was excellent!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r578658019-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>578658019</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent </t>
+  </si>
+  <si>
+    <t>5/5-5/6 One night stay. Excellent staff, brand new  Courtyard which you can never go wrong with as long as New. Not fancy but it’s not supposed to be.I would definitely stay here again next time in Fort Worth and I am extremely picky. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Salvador P, Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2018</t>
+  </si>
+  <si>
+    <t>5/5-5/6 One night stay. Excellent staff, brand new  Courtyard which you can never go wrong with as long as New. Not fancy but it’s not supposed to be.I would definitely stay here again next time in Fort Worth and I am extremely picky. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r575772079-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>575772079</t>
+  </si>
+  <si>
+    <t>04/25/2018</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>I have been staying in this beautiful hotel for 2 nights, located in the heart of the historic Fort Worth Stockyards, good breakfast and food, professional service, room very clean and great staff. A special thank to Manager, Mrs.Belinda for advice about places to visit. I hope to come back with my family soon - Best regards, ValerioMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Salvador P, Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded April 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2018</t>
+  </si>
+  <si>
+    <t>I have been staying in this beautiful hotel for 2 nights, located in the heart of the historic Fort Worth Stockyards, good breakfast and food, professional service, room very clean and great staff. A special thank to Manager, Mrs.Belinda for advice about places to visit. I hope to come back with my family soon - Best regards, ValerioMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r575306256-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>575306256</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Great customer service!</t>
+  </si>
+  <si>
+    <t>I want to give a quick shout out to Chantell and Lizette who work at the Bistro inside the hotel.  We came in late one night hungry but the Bistro had closed. It was raining so we couldn't walk and we didnt feel safe to drive. The ladies were closing up when we asked where we could get food. They were so kind, they offered to fire up the fryer and make us some buffalo wings and fried! We were shocked that these incredible ladies would stay late and serve us a snack. It is very rare people go out of their way any more  and yet these two offered their help without a second thought. Everyone we encountered at this hotel from the front desk to the valets to the room attendants were very helpful and friendly. I only gave 4 stars because the road noise can be heard even in our 4th floor room. Also, for some reason our bed was really loud and creaked and groaned ever time my husband or I rolled over. Last frustration was the noisy air conditioner. The location was perfect for a night out partying in the stockyards. It was very clean and decorated beautifully. I would stay again just for the customer service alone though. Hopefully they can upgrade the air conditioners before we come back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Salvador P, Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded April 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2018</t>
+  </si>
+  <si>
+    <t>I want to give a quick shout out to Chantell and Lizette who work at the Bistro inside the hotel.  We came in late one night hungry but the Bistro had closed. It was raining so we couldn't walk and we didnt feel safe to drive. The ladies were closing up when we asked where we could get food. They were so kind, they offered to fire up the fryer and make us some buffalo wings and fried! We were shocked that these incredible ladies would stay late and serve us a snack. It is very rare people go out of their way any more  and yet these two offered their help without a second thought. Everyone we encountered at this hotel from the front desk to the valets to the room attendants were very helpful and friendly. I only gave 4 stars because the road noise can be heard even in our 4th floor room. Also, for some reason our bed was really loud and creaked and groaned ever time my husband or I rolled over. Last frustration was the noisy air conditioner. The location was perfect for a night out partying in the stockyards. It was very clean and decorated beautifully. I would stay again just for the customer service alone though. Hopefully they can upgrade the air conditioners before we come back!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r574634849-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>10728538</t>
-  </si>
-  <si>
     <t>574634849</t>
   </si>
   <si>
@@ -177,12 +552,6 @@
     <t>Very friendly welcome, very clean, incredible atmosphere.  Short walk to historic town. Great rodeo just around the block every weekend.              Los Vaquero’s Mexican food only a block away was also very good!! MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Salvador P, Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded April 21, 2018</t>
   </si>
   <si>
@@ -192,9 +561,6 @@
     <t>Very friendly welcome, very clean, incredible atmosphere.  Short walk to historic town. Great rodeo just around the block every weekend.              Los Vaquero’s Mexican food only a block away was also very good!! More</t>
   </si>
   <si>
-    <t>Peter M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r573472203-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -217,9 +583,6 @@
   </si>
   <si>
     <t>Enjoyed a 2 night stay in this new hotel. Service was excellent and the the staff were great. Clean room and very comfortable bed.Great bars and restaurants are just a short walk away. The hotel is little on the pricey side though.More</t>
-  </si>
-  <si>
-    <t>Scott C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r572565740-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
@@ -239,9 +602,6 @@
 Really?  This comes...Just came back from a weekend trip to FW and this hotel.  I would've given this hotel a 5-bubble rating if, gasp, they let us park our own car!  I am okay with the idea of paying for parking, that's fine.  But why they think we need mandatory valet parking is beyond me.  We have two toddlers, so getting things in and out of the car is, in a few words, a chore.  It would've been so much easier if they just let us park and let us unload/load the car at our own leisure.  What else?  I specifically asked if I can park my car then unload, and they insisted I have to unload right there and then.  I then asked if they can just park close by since we didn't get everything out of the car and need to make a trip upstairs first.  What did they do, they literally parked my car at the furthest spot possible (I know because our hotel room looked out straight at the empty parking lot, lol).What else, I kid you not, right next to the front door is a sign that says "NOTICE: you are parking and leaving your vehicle at your own risk.  Please lock all doors and windows after removing any property or valuables from the vehicle.  The hotel will not, in any event, be liable for loss or damages to your vehicle or property."Really?  This comes with Valet Parking? lolol.  How am I supposed to lock my own car if, let's see, I don't have my own key!?!?I have written a lot of reviews on Tripadvisor.com and I guarantee you that I've never been this negative on any hotels i've stayed at.The hotel itself is fine.  And the location is pretty perfect, especially if your plan includes going right across the street to Billy Bob's - you can literally stumble back to your hotel room even if you are half awake/drunk.So yeh, overall, nice hotel, stupid policy for mandatory parking.  Look, hotel management - if you are worried about people filling up your parking lot, just get one of those parking lot raising arm gates and let people swipe their keycard in and out of the parking lot!  Plenty of hotels in Fort Worth have that!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Salvador P, Guest Relations Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded April 11, 2018</t>
   </si>
   <si>
@@ -253,9 +613,6 @@
 Really?  This comes...Just came back from a weekend trip to FW and this hotel.  I would've given this hotel a 5-bubble rating if, gasp, they let us park our own car!  I am okay with the idea of paying for parking, that's fine.  But why they think we need mandatory valet parking is beyond me.  We have two toddlers, so getting things in and out of the car is, in a few words, a chore.  It would've been so much easier if they just let us park and let us unload/load the car at our own leisure.  What else?  I specifically asked if I can park my car then unload, and they insisted I have to unload right there and then.  I then asked if they can just park close by since we didn't get everything out of the car and need to make a trip upstairs first.  What did they do, they literally parked my car at the furthest spot possible (I know because our hotel room looked out straight at the empty parking lot, lol).What else, I kid you not, right next to the front door is a sign that says "NOTICE: you are parking and leaving your vehicle at your own risk.  Please lock all doors and windows after removing any property or valuables from the vehicle.  The hotel will not, in any event, be liable for loss or damages to your vehicle or property."Really?  This comes with Valet Parking? lolol.  How am I supposed to lock my own car if, let's see, I don't have my own key!?!?I have written a lot of reviews on Tripadvisor.com and I guarantee you that I've never been this negative on any hotels i've stayed at.The hotel itself is fine.  And the location is pretty perfect, especially if your plan includes going right across the street to Billy Bob's - you can literally stumble back to your hotel room even if you are half awake/drunk.So yeh, overall, nice hotel, stupid policy for mandatory parking.  Look, hotel management - if you are worried about people filling up your parking lot, just get one of those parking lot raising arm gates and let people swipe their keycard in and out of the parking lot!  Plenty of hotels in Fort Worth have that!More</t>
   </si>
   <si>
-    <t>Alisha A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r570620363-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -280,9 +637,6 @@
     <t>I had been driving for 8 hours grouchy and exhausted when I got to the hotel. Starved, I took to hotel bistro, it isn’t anything crazy but has a good selection for every diet. A young man named Adam gave his honest opinion on every item.  I’m a picky eater, he overly accommodated with my order.  At one point he was so attentively helpful I played to make it difficult for him and he held up.  I own 11 restaurants in Oregon and wish I could say all my employees were as helpful and knowledgeable of the menu and humans as he was. Customer service, and hospitality a triple A+More</t>
   </si>
   <si>
-    <t>J5579LIanam</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r570478723-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -298,15 +652,9 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>The hotel should recognize Jessica at the front desk for being professional and fixing someone else's error! I called 1.800.433.5677 to update my check in date only and my whole reservation was changed to 1day stay from 4night stay. Which I emailed CYfortworthAGM@LBAproperities.com and have yet to get a reply and that was a week ago!More</t>
   </si>
   <si>
-    <t>Angel S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r567488827-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -346,9 +694,6 @@
     <t>The hotel is very well located nearby the historic stockyards and Billy Bob’s Texas. All main attractions of this area are in walking distance, so that’s really cool. Staff was kind and efficient, and room cozy and clean - seems to be new or recently renovated. The only, but major, downside is the noise. My room window faced the North Main Street, which is really busy with pickups roaring large engines day and night. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Salvador P, Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded March 18, 2018</t>
   </si>
   <si>
@@ -358,9 +703,6 @@
     <t>The hotel is very well located nearby the historic stockyards and Billy Bob’s Texas. All main attractions of this area are in walking distance, so that’s really cool. Staff was kind and efficient, and room cozy and clean - seems to be new or recently renovated. The only, but major, downside is the noise. My room window faced the North Main Street, which is really busy with pickups roaring large engines day and night. More</t>
   </si>
   <si>
-    <t>KatieG958</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r566491275-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -376,9 +718,6 @@
     <t>Nice, clean hotel. Exceptionally friendly/helpful staff (front desk, food/beverage, housekeeping). The lobby area is large enough to visit with friends and not feel like you are encroaching on others' space. Our room was spacious, bed comfortable. The entire hotel is wheelchair friendly (except when exciting the room - the door is quite heavy for someone in a wheelchair to pull open). Our room was near the main road - at night the motorcycles were obnoxiously loud. There were ear plugs in the room that did help.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Salvador P, Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded March 17, 2018</t>
   </si>
   <si>
@@ -388,9 +727,6 @@
     <t>Nice, clean hotel. Exceptionally friendly/helpful staff (front desk, food/beverage, housekeeping). The lobby area is large enough to visit with friends and not feel like you are encroaching on others' space. Our room was spacious, bed comfortable. The entire hotel is wheelchair friendly (except when exciting the room - the door is quite heavy for someone in a wheelchair to pull open). Our room was near the main road - at night the motorcycles were obnoxiously loud. There were ear plugs in the room that did help.More</t>
   </si>
   <si>
-    <t>mmorgan72</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r561337492-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -442,7 +778,112 @@
     <t>Hotel is always clean, great atmosphere, delicious food and amazing customer service.  Staff went above and beyond to make my birthday special last week.  Thank you Salvador, Balina, Makela and Lizzet!!More</t>
   </si>
   <si>
-    <t>Paul L</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r559272376-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>559272376</t>
+  </si>
+  <si>
+    <t>02/08/2018</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>This was our first trip to Ft Worth and the Stockyards and it was a great location. We were able to walk to dinner and a show at Billy Bobs as well as all the stockyard attractions.The hotel was very nice. Staff was friendly. The room was very comfortable. We looked out on Main street which was a nice view but noisy. Lots of traffic at all hours plus the train whistles. There was a nice couch and we slept well in the bed. The bathroom was very nice. Large shower and spacious bathroom.Valet parking is required. We just parked for the night so didn't have to mess with in and out. You pay everywhere to park so it wasn't that unusual.We got back to our room 10 minutes before check-out and were locked out. Luckily there was a maid next door and she was able to let us in after she verified who we were. If she hadn't been there it would have been a big inconvenience.There are only 2 elevators and 1 was closed for a day which made getting to and from rooms slower, but better than being stuck in the elevator.Over-all it's a nice hotel in a great location if you want to explore the Stockyards.MoreShow less</t>
+  </si>
+  <si>
+    <t>Salvador P, Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded February 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2018</t>
+  </si>
+  <si>
+    <t>This was our first trip to Ft Worth and the Stockyards and it was a great location. We were able to walk to dinner and a show at Billy Bobs as well as all the stockyard attractions.The hotel was very nice. Staff was friendly. The room was very comfortable. We looked out on Main street which was a nice view but noisy. Lots of traffic at all hours plus the train whistles. There was a nice couch and we slept well in the bed. The bathroom was very nice. Large shower and spacious bathroom.Valet parking is required. We just parked for the night so didn't have to mess with in and out. You pay everywhere to park so it wasn't that unusual.We got back to our room 10 minutes before check-out and were locked out. Luckily there was a maid next door and she was able to let us in after she verified who we were. If she hadn't been there it would have been a big inconvenience.There are only 2 elevators and 1 was closed for a day which made getting to and from rooms slower, but better than being stuck in the elevator.Over-all it's a nice hotel in a great location if you want to explore the Stockyards.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r558661607-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>558661607</t>
+  </si>
+  <si>
+    <t>02/05/2018</t>
+  </si>
+  <si>
+    <t>Lobby bar is top notch!</t>
+  </si>
+  <si>
+    <t>I stopped in late Saturday for a drink with a couple buddies after hitting some Stockyard's bars.  The place was super clean, the bartender, Savannah, was very friendly and helpful, and the drink selection was great.  The availability of coffee-based drinks in addition to standard alcohol options was a nice bonus, and Savannah mixed up the best Irish coffee I've had in a long time.  Would recommend this bar for a pregame or postgame option when in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stopped in late Saturday for a drink with a couple buddies after hitting some Stockyard's bars.  The place was super clean, the bartender, Savannah, was very friendly and helpful, and the drink selection was great.  The availability of coffee-based drinks in addition to standard alcohol options was a nice bonus, and Savannah mixed up the best Irish coffee I've had in a long time.  Would recommend this bar for a pregame or postgame option when in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r558624105-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>558624105</t>
+  </si>
+  <si>
+    <t>Convenient location if you intend to spend any amount of time enjoying the Stockyards</t>
+  </si>
+  <si>
+    <t>This is a one-year old hotel right on Main St.  Very modern, yet fits the Stockyards motif.  Friendly, helpful staff, clean well-appointed room.  Within walking distance of all that the Historic Stockyards has to offer.  A couple of cons: the elevators are too far from the reception area; it seems outrageous to charge $20.00 per night for valet parking (valets who do not help unload or load your luggage) and they don't allow self-parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>Salvador P, Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded February 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2018</t>
+  </si>
+  <si>
+    <t>This is a one-year old hotel right on Main St.  Very modern, yet fits the Stockyards motif.  Friendly, helpful staff, clean well-appointed room.  Within walking distance of all that the Historic Stockyards has to offer.  A couple of cons: the elevators are too far from the reception area; it seems outrageous to charge $20.00 per night for valet parking (valets who do not help unload or load your luggage) and they don't allow self-parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r558328193-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>558328193</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>Girls night out</t>
+  </si>
+  <si>
+    <t>The staff was very courteous and eager to please from reservation to check out. Always addressed me by name and always asked if I needed anything. Lovely western decor, very clean and secure. Easy access to all stockyards events, all in walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>The staff was very courteous and eager to please from reservation to check out. Always addressed me by name and always asked if I needed anything. Lovely western decor, very clean and secure. Easy access to all stockyards events, all in walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r558007275-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>558007275</t>
+  </si>
+  <si>
+    <t>02/02/2018</t>
+  </si>
+  <si>
+    <t>Restful, Friendly, Contemporary</t>
+  </si>
+  <si>
+    <t>I recently enjoyed a four day, three night stay at this new Marriott property located a few vine steps from Billy Bob's and a few blocks from the historic stockyards. A great first welcome from Belinda, Brian and Rashanda at the front desk. A clean, fresh designed King room with comfortable couch and walk-in shower. Great staff, workout center and lobby with lots of private/quiet space. A fun cowboy decor featuring boots from Leddy's. Extra cost for valet parking offers a friendly, speedy and safe service. Breakfast and Dinner is an extra charge, but you know as you make a reservation and embrace it...good Starbucks coffee. Here's an idea: get a cheap Southwest flight to Love Field in DFW; catch the TRE train n bus for $5 and get dropped off at The Courtyard Historic Stockyards; enjoy Riscky's; Cattle Drive; Shopping n Billy Bob's all within easy walking distance. A classy Marriott stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Salvador P, Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded February 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2018</t>
+  </si>
+  <si>
+    <t>I recently enjoyed a four day, three night stay at this new Marriott property located a few vine steps from Billy Bob's and a few blocks from the historic stockyards. A great first welcome from Belinda, Brian and Rashanda at the front desk. A clean, fresh designed King room with comfortable couch and walk-in shower. Great staff, workout center and lobby with lots of private/quiet space. A fun cowboy decor featuring boots from Leddy's. Extra cost for valet parking offers a friendly, speedy and safe service. Breakfast and Dinner is an extra charge, but you know as you make a reservation and embrace it...good Starbucks coffee. Here's an idea: get a cheap Southwest flight to Love Field in DFW; catch the TRE train n bus for $5 and get dropped off at The Courtyard Historic Stockyards; enjoy Riscky's; Cattle Drive; Shopping n Billy Bob's all within easy walking distance. A classy Marriott stay!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r555561345-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
@@ -460,9 +901,6 @@
     <t>First, MANDATORY $20 per night per car "valet" parking.  Courtyard, if you want more for the room, quote it in the price - don't hide fees as 'valet' parking.  Staff would not even let us drop our bags at the front without paying the fee, we had to park off site on an unlit street and walk our bags in.  Unhappy within minutes of arriving!Get to the room, Cheetos all over the floor and used bar of soap stuck to the side of the tub.  I'm not a huge germ a phobe, but pretty gross none the less.If a reviewer says the staff was even acceptable here, they are lying.  We stayed for a week and everyone we came across was terrible.  Asked for my coffee on ice at the cafe and that BLEW their minds, needed a manager to approve giving me a cup of ice to pour it on.  HUGE line 3 of the 4 days at the cafe, hate to say it but the staff is just uhhhh thick or whatever word you want to use. I hate to be rude but I'm confident you'll find the same.  So, if you don't mind a little filth, terrible staff, and you don't have a car with you - this is a great place to stay!MoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
     <t>Salvador P, Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded January 24, 2018</t>
   </si>
   <si>
@@ -472,9 +910,6 @@
     <t>First, MANDATORY $20 per night per car "valet" parking.  Courtyard, if you want more for the room, quote it in the price - don't hide fees as 'valet' parking.  Staff would not even let us drop our bags at the front without paying the fee, we had to park off site on an unlit street and walk our bags in.  Unhappy within minutes of arriving!Get to the room, Cheetos all over the floor and used bar of soap stuck to the side of the tub.  I'm not a huge germ a phobe, but pretty gross none the less.If a reviewer says the staff was even acceptable here, they are lying.  We stayed for a week and everyone we came across was terrible.  Asked for my coffee on ice at the cafe and that BLEW their minds, needed a manager to approve giving me a cup of ice to pour it on.  HUGE line 3 of the 4 days at the cafe, hate to say it but the staff is just uhhhh thick or whatever word you want to use. I hate to be rude but I'm confident you'll find the same.  So, if you don't mind a little filth, terrible staff, and you don't have a car with you - this is a great place to stay!More</t>
   </si>
   <si>
-    <t>AwesomeAndie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r554669377-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -499,9 +934,6 @@
     <t>Stayed here for a birthday celebration and was treated like royalty. I just can't say enough about the friendliness of the staff. What an accommodating group, they seriously bend over backwards to make sure their guests are happy.More</t>
   </si>
   <si>
-    <t>hopkinssr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r551234111-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -523,9 +955,6 @@
     <t>Reggi E was such a smiling face and a pleasure to see each day in the halls!In the lobby where you can get some awesome Coffees and Breakfast!  Loved the ambiance Lovena, Makyla, and Tiffany made there!!!  Such sweet people!More</t>
   </si>
   <si>
-    <t>Eric H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r548306751-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -550,9 +979,6 @@
     <t>Your standard Courtyard.  The staff is nice, the property is well kept and the rooms are comfortable.  They have a nice Bistro and the internet works well.  I stayed there 14 nights over a couple of weeks and didn't really have any issues.The locations is great for the Stockyards and Billy Bob's - a 5 minute walk tops - but its pretty removed from anything else in Fort Worth.  The location comes at a cost though - mandatory valet parking of $20 plus tips per night.  (The valets really do hustle there so I felt they earned their tips).  My guess is non-guests were filling up the lot so they were forced to add the valet.  Not a huge deal, but something to factor in when budgeting.More</t>
   </si>
   <si>
-    <t>Nicole A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r546490939-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -577,9 +1003,6 @@
     <t>Traveled from the Houston area for a concert at Billy Bob’s and stayed here very clean and decorated nicely! Stephanie at the Front desk was very helpful in the information that I asked about the area and wonderful about giving directions to the places I was wanting to find. The location is perfect for walking distance to historic stockyards. All the staff are very friendly and welcoming would recommend anyone to stay here. Next time I return I plan to stay here again.  FYI: Parking is Valet only and does cost $20 each night More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r545161993-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -607,9 +1030,6 @@
     <t>The staff here is Ahhhhmazing. Reggie, Lizzet, Lorena, Savannah, Johnathan, Steph and Rashanda. And all the staff. Thank You for a very enjoyable stay and all your kindness. Oh and the valet guys, Durrell and Kenny, awesome also. P. S. They all need raises!!! Next time we are here we will most definitely stay here. More</t>
   </si>
   <si>
-    <t>mikecox24</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r544625251-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -634,9 +1054,6 @@
     <t>I enjoyed the hotel.  It was a great location in the historic stockyard and all that go with that cowboy area.  Very nice.  Staff was great, all very accommodating and super nice.  I was a little disappointed that the parking at the hotel was valet and pay only.  I was able to find a free parking right next to the hotel.  It did not seem a problem to others at the hotel, from what I saw all paid the $20 a night.  I parked on the street for free.More</t>
   </si>
   <si>
-    <t>SGB19592017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r543712346-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -658,9 +1075,6 @@
     <t>I have stayed here for business purposes over last several weeks and the staff has been fabulous. Steph greets me by name when I check in so makes me feel at home. Lizzett has been great also. Rooms are comfortable and quiet. This is located in historic area of Ft Worth, convenient to great restaurants too. Overall has made business more of a pleasurable trip.More</t>
   </si>
   <si>
-    <t>Matt M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r542545073-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -685,9 +1099,6 @@
     <t>Stayed here few days and I have to give it up to the bistro ladies Lorena and Savannah. They made my first night so fun!  Steph at the front desk is great! The check in was very swift. My stay was very pleasant. They are really great with all the guests, are always smiling and greeting every body.. good job ladies.More</t>
   </si>
   <si>
-    <t>shaned136</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r541667316-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -712,9 +1123,6 @@
     <t>I had the pleasure to spend 3 nights at the Courtyard Fort Worth for a business conference. The staff were fantastic and friendly. The location to all that is the Historic Fort Worth precinct was excellent. A great location and facilities for all of your conference needs More</t>
   </si>
   <si>
-    <t>J F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r541255748-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -737,9 +1145,6 @@
   </si>
   <si>
     <t>This hotel is great. Very well located. Nice rooms. Nice personnel. The gym and the pool are good. It is a good option to spend some days in Fort Worth. The price is not cheap. It’s 3 miles far from downtown. And there is a 30-minute car run from Dallas International Airport. More</t>
-  </si>
-  <si>
-    <t>Liz E</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r541252650-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
@@ -767,9 +1172,6 @@
 Just...We chose this Marriott Courtyard location because of its proximity to Billy Bob’s. It was great to be able to walk across the street to our concert and then back again without having to worry about parking and traffic. Stephanie was our front desk respresentative during check-in.  She was very professional while making us feel genuinely welcomed. When she passed by us at the end of her day, she stopped to make sure that we were enjoying our stay.The next morning, Tiffany and Makayla served our group breakfast.  They worked well together to get our many orders served quickly, and checked in with us throughout the meal to make sure that we had everything that we needed. The staff was excellent, and all seemed to be juggling several tasks with ease.  My only suggestion to management is to perhaps increase staffing numbers during peak periods to minimize guest waiting time.  Having a Starbucks on site is definitely a welcomed treat, but if the Bistro cashier also has to make a custom beverage with a line of people waiting, it can test everyone's patience. (The person behind me in line audibly moaned when the person in front of me ordered two, custom drinks.)The hotel is very clean, the beds are comfortable, the elevator runs well, and the lobby decor is unique. I was especially delighted to see that the pool had a lift chair to accommodate differently-abled guests. Just as an FYI, the posted room rates does not include mandatory valet parking costs ($20). Twenty dollars is a hefty price and a somewhat unexpected expense for a Courtyard.Nonetheless, I would definitely stay here again.More</t>
   </si>
   <si>
-    <t>cgal200</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r539556292-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -794,9 +1196,6 @@
     <t>We had about 15 people gathered, after a wedding reception, in the bar.  The manager allowed them to continue to serve after their scheduled close time.  Savanna and Lizzet stayed late. Excellent service!More</t>
   </si>
   <si>
-    <t>Supermeals</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r538495319-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -821,9 +1220,6 @@
     <t>Staff was texas friendly and welcoming.Girls at the bistro , Lorena and makayla, helped cure my hangover from Billy bobs with a smile and a great cup of coffee. You can walk to everything from this place and are only a short uber to AT&amp;T stadium .Go cowboys ! More</t>
   </si>
   <si>
-    <t>1rusty</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r537517191-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -851,9 +1247,6 @@
     <t>Arrived after 18 hour flight. At 10.05  told no hot drinks no tea no coffee !! All closed down. Drinks when we had them next day came in paper cups ! Even upstairs we had cheap paper cups.  Too wash our teeth paper !! No safe in rooms ! I am not going down to desk to ask for my money. Then getting in a lift someone may follow me Pool was good but closed as a guy making a new path And wow the noise.  From 5 in morning. Cars trucks and more  needed to have Tripple glazing   And music til 2.30 in the morning just outside on a weekend  only nice staff member was behind the bar she had lovely long hair and glasses.   Valet parking ,totally unnecessary, guys  park the cars 50 feet from main doorMore</t>
   </si>
   <si>
-    <t>kikitup</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r535143938-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -878,9 +1271,6 @@
     <t>Shame on Marriott! I am so disappointed in this chain. $300+ a night, no complementary breakfast of any kind. WTF! I got a text at 3 AM for a $10 charge, which the hotel could not explain. "Automatic... don't worry, it will drop off". Had "do not disturb" on the door, yet the maid banged at the door hours before check out. Did I mention $29 for parking? I'm a huge fan of Marriott and stay there every opportunity. This hotel is beautiful and the room was very nice and convenient to Billy Bob's. but this was over the topMore</t>
   </si>
   <si>
-    <t>inFlightFun</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r535138534-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -896,9 +1286,6 @@
     <t>Hotel is located in the Stockyard. Walking distance to the Rodeo, various restaurants &amp; bars.  Lots of night life in this area.  Parking your car here will cost you $20 per night.  A nice quiet bar is located in the lobby.  Nice workout facility.  We had a quiet room on the 1st floor with a view of the swimming pool. It was too cold to swim. Overall nice, clean, quiet hotel. $20 per night to park car is preventing me from giving 5 stars.More</t>
   </si>
   <si>
-    <t>steveopt</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r533495629-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -923,9 +1310,6 @@
     <t>We stayed here for two nights while visiting the Stockyards.  The hotel appears brand new, and they took the time to decorate it to suit the Stockyards location.  We were surprised to see such a themed hotel for the Courtyard brand.  The rooms were very clean, and the pool was great.  There was a bit of noise at night from the bars nearby, however, if you are staying near the stockyards, you should expect some night noise anyway.  I am sure every other hotel in the area experiences the same thing.More</t>
   </si>
   <si>
-    <t>ladyomaha</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r533200594-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -944,9 +1328,6 @@
     <t>Great location. One block from the Stockyards offering great restaurants and bars.  Safe walking to and fro.  Clean rooms and staff was friendly.  Small coffee shop in lobby for coffee and breakfast for purchase.  Parking is ONLY valet service but only $20 a day.More</t>
   </si>
   <si>
-    <t>metntex</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r532965306-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -965,7 +1346,100 @@
     <t>Nice enough property. A newer Courtyard concept. We were a tad put out with the service. Called ahead to ask for a high floor room and was put on hold for 15+ minutes and called back and was put on hold again.Bed very uncomfortable and if your room faces Main St. be prepared for no sleep as traffic is heavy all night long. Nice shower. Room for two. Good pressure and water hot. Good location to Stockyards.Don’t think we’ll stay here again. Nice Marriott properties a few miles south in downtown FTW. PS. Dear Manager, please don’t respond with your standard clicheish response. Thanks. More</t>
   </si>
   <si>
-    <t>Jessica B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r531541681-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>531541681</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Great location and good food!</t>
+  </si>
+  <si>
+    <t>We came here for an offsite training for my husband’s work. They had training in one of the meeting rooms. We had breakfast and lunch from the Bistro and it was great! The room we had was a king suite. It was big and spacious. We had an excellent stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Corey C, General Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded October 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2017</t>
+  </si>
+  <si>
+    <t>We came here for an offsite training for my husband’s work. They had training in one of the meeting rooms. We had breakfast and lunch from the Bistro and it was great! The room we had was a king suite. It was big and spacious. We had an excellent stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r529255595-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>529255595</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Stock yards and long horns</t>
+  </si>
+  <si>
+    <t>I took my daughter, my niece and a friend of my daughters. We went during the week and it was not very busy. Most of the little shops were empty, but the petting area was nice. The long horns were amazing and we just loved looking at them out in the pens. We were also very lucky we walked into the warehouse where the was a mule, a reindeer, horses and more long horn Bulls. We spent a long time in there. we went to love shack burger place for lunch and it was good. Also another high light of the day was at around 4:00pm the Cowboys on horses walk the long horns around the square and back into their pens. That was really very cool. It only lasted about 20 minutes or so. It was a very HOT day.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>I took my daughter, my niece and a friend of my daughters. We went during the week and it was not very busy. Most of the little shops were empty, but the petting area was nice. The long horns were amazing and we just loved looking at them out in the pens. We were also very lucky we walked into the warehouse where the was a mule, a reindeer, horses and more long horn Bulls. We spent a long time in there. we went to love shack burger place for lunch and it was good. Also another high light of the day was at around 4:00pm the Cowboys on horses walk the long horns around the square and back into their pens. That was really very cool. It only lasted about 20 minutes or so. It was a very HOT day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r529214355-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>529214355</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>The hotel was very nice and our rooms were clean. We enjoyed the pool and bar after our appointments were finished for the day. The hotel was only a block away from the main area in the Stockyards and we were able to walk to a popular restaurant nearby. T.C. was very helpful when we checked out!MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was very nice and our rooms were clean. We enjoyed the pool and bar after our appointments were finished for the day. The hotel was only a block away from the main area in the Stockyards and we were able to walk to a popular restaurant nearby. T.C. was very helpful when we checked out!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r528053024-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>528053024</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Good....get a room overlooking pool</t>
+  </si>
+  <si>
+    <t>Okay, here's the deal.....yes the valet parking is silly, you can see your own car from where you give the guy your ticket.  Good staff, only complaint is there was some drunk chick knocking on one of the doors in the hallway for like 20min in middle of night, called front desk I assume they sent someone up cuz knocking stopped but then the chick proceeded to try to talk through the door to whoever was in the room.  If the chick wasn't staying in the room she was knocking on, she shoulda been kicked out of hotel.  Get a room overlooking the pool versus the street cuz there is a lot of traffic noise on the street.  Nice brand new hotel with nice pool and gym though.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Okay, here's the deal.....yes the valet parking is silly, you can see your own car from where you give the guy your ticket.  Good staff, only complaint is there was some drunk chick knocking on one of the doors in the hallway for like 20min in middle of night, called front desk I assume they sent someone up cuz knocking stopped but then the chick proceeded to try to talk through the door to whoever was in the room.  If the chick wasn't staying in the room she was knocking on, she shoulda been kicked out of hotel.  Get a room overlooking the pool versus the street cuz there is a lot of traffic noise on the street.  Nice brand new hotel with nice pool and gym though.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r525652680-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>525652680</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location great hotel wonderful breakfast </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 of us stayed here before heading to a family wedding. It's a great hotel really close to theStockyards and all the really good restaurants. What was excellent though was the really good breakfast and the service. Huge call out for Lovena and Alondra who could not do enough for us to make our breakfast a great start to the day. </t>
+  </si>
+  <si>
+    <t>September 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r525106735-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
@@ -983,15 +1457,9 @@
     <t>We were in town for a Cowboys game and wanted tobstag somewhere with some Texas spirit. The hotel is modern, with really nice decor, even surprising for a Courtyard. The staff was wonderful. They have a limited breakfast which was fine for us. There isbrequired valet, but if you're willing you walk a block, you can park on the street. The best part was it was across the street from the Stockyards! We went back 3 times between the cattle drive, dinner and going out to bars. We easily drove to local highways to get to other places, like AT&amp;T and the baseball stadium. Friends that stayed outside, for a few dollars cheaper were really impressed at the location and are staying here next time. It will be my go to - as well.MoreShow less</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t>We were in town for a Cowboys game and wanted tobstag somewhere with some Texas spirit. The hotel is modern, with really nice decor, even surprising for a Courtyard. The staff was wonderful. They have a limited breakfast which was fine for us. There isbrequired valet, but if you're willing you walk a block, you can park on the street. The best part was it was across the street from the Stockyards! We went back 3 times between the cattle drive, dinner and going out to bars. We easily drove to local highways to get to other places, like AT&amp;T and the baseball stadium. Friends that stayed outside, for a few dollars cheaper were really impressed at the location and are staying here next time. It will be my go to - as well.More</t>
   </si>
   <si>
-    <t>suerobhodge</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r524202792-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1010,16 +1478,19 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t>Paul M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r521529567-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>521529567</t>
   </si>
   <si>
-    <t>Pete B</t>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>Great Western Hospitality!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here over the week end of the Michigan vs Florida game &amp; so glad I did!  Close to everything "Stockyards"!!  Everything within walking distance.  The staff is extremely friendly and made us feel very welcome!  </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r521214323-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
@@ -1037,9 +1508,6 @@
     <t>I can not fault this hotel. From the moment we entered we were met with smiles from every single member of staff that we saw.Rooms are very spacious, clean and comfortable. Public areas are bright, spacious and clean.Having the Starbucks is an added bonus.Ideal location for the Stockyards which is just a few minutes walk away.</t>
   </si>
   <si>
-    <t>lmeador</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r520921421-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1058,7 +1526,79 @@
     <t>Booked online for the Florida vs Michigan kickoff game in September of 2017, and was surprised at the reasonable rate. We called in advance to ensure that the hotel was within walking distance of the "Exchange - Stockyard area," and they assured us it was...it is! The hotel is about 300 yards or so from Billy Bobs and about a block from the main drag of the Stockyards - btw, the White Elephant is a great bar over there - ask for Ox! Anyway, the hotel is very new - less than a year, has great room size, all the amenities, very nice bathrooms, bar, work-out room, pool, serves breakfast etc. etc. The staff is SUPER friendly, from valet to front desk to cleaning staff - all top notch. This isn't a 5-star; it's not a 4-star, but if you are looking for a super-clean, super-convenient; super-nice hotel near the Stockyards, this is it. We're very happy we found it. I think we paid about $165/night +/-? oh, and bring your key when you leave at night; they lock the doors - we appreciated that, but you need your room key to get in the building More</t>
   </si>
   <si>
-    <t>Rowlett9105</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r520749248-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>520749248</t>
+  </si>
+  <si>
+    <t>U of M victory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice &amp; brand new hotel. The hotel staff from the groundskeeper to the front desk to Lorena &amp; Alondra did an awesome job making us breakfast drinks. Walking distance to all the places to see and eat in the historic Stockyards district. I would definitely recommend this hotel and area for any group and all ages. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r518098818-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>518098818</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>Very nice! Great service. Wish our car would have actually been parked on property by valet. The bed was a little to firm. Just keep in mind parking is valet only. Your car may be parked on a lot that is not on site. My husband went to get something out of our car that was within walking distance and there were a couple of transients hanging out in the lot.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r517432264-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>517432264</t>
+  </si>
+  <si>
+    <t>08/25/2017</t>
+  </si>
+  <si>
+    <t>Friendly staff and so Close to Billy Bob's</t>
+  </si>
+  <si>
+    <t>This was a last minute reservation when our flight out of DFW was cancelled. The staff were great in welcoming us and tried to make up for our bad day with the airlines. Room was quiet, clean and smelled good. Looked new.  Walked to dinner in Historic Ft. Worth Stockyards for dinner then walked to Billy Bob's.  It was so nice to just walk across the street to our hotel Highly recommend staying here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r517428517-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>517428517</t>
+  </si>
+  <si>
+    <t>Nicest Courtyard ever!</t>
+  </si>
+  <si>
+    <t>Just spent 2 nights in the Stockyards Courtyard! Clean, great staff. Literally a 2 minute walk into the Stockyards district.Only knock is $20/night parking. Hotel should provide parking passes for those staying, the excuse that they want to assure parking for their guests is kind of lame.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r511967841-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>511967841</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New, great Stockyards location </t>
+  </si>
+  <si>
+    <t>This new Courtyard is situated perfectly for Stockyards visitors. The facility is new with the appropriate Western theme. Check-in was fast and easy. Those that didn't use mobile checkout were standing in line as there was only one person on the desk. The room was great with the new layout design and the a/c worked great!I liked the scratch off rewards thing they were doing - scored a free bottle of water!MoreShow less</t>
+  </si>
+  <si>
+    <t>Dawn G, Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded August 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2017</t>
+  </si>
+  <si>
+    <t>This new Courtyard is situated perfectly for Stockyards visitors. The facility is new with the appropriate Western theme. Check-in was fast and easy. Those that didn't use mobile checkout were standing in line as there was only one person on the desk. The room was great with the new layout design and the a/c worked great!I liked the scratch off rewards thing they were doing - scored a free bottle of water!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r508502141-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
@@ -1076,9 +1616,6 @@
     <t>Stayed at the Courtyard last weekend to attend a show at Billy Bob's.  This is a new hotel in the perfect location for the Stockyards.  Right in the middle of everything.  A very short walk across the street to Billy Bob's.  The Stockyards are right down the street and stores and restaurants surround the place.  The inside of the hotel has a western feel.  The rooms are new and clean.  Probably one of the nicest Courtyards I've ever stayed in.  The only problem with this Courtyard is they charge $20 to park and you have to have valet.  Had to wait a bit to leave since a lot of people were checking out at the same time.  Other than that had a great time in a really nice hotel.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>Dawn G, Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded August 11, 2017</t>
   </si>
   <si>
@@ -1106,9 +1643,6 @@
     <t>We stayed at this hotel while in town for a show at Billy Bob's. The hotel is right across the street from the venue, so it was perfect. I loved this place! The entire property, from the lobby to the rooms, is beautiful. Everything is kept extremely clean. I know the place isn't that old, but the room looked like it was brand new. I also loved the layout of the room - the bed was against the bathroom wall instead of the adjoining room. There are nice features, like USB charging ports in the outlets and YouTube access on the TV. The bathroom is VERY nice. And have I mentioned how clean it all was? Every staff member that we came in contact with was super friendly. They all made us feel welcome and appreciated. There was very little noise from outside the room, so I slept well. We will definitely be back for a stay to explore the Stockyards in the next few months. I stay in hotels all the time. This one is my favorite by far. More</t>
   </si>
   <si>
-    <t>skibumal</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r501435609-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1133,9 +1667,6 @@
     <t>Stayed for one night on a recent business trip to the Dallas area. Wanted to enjoy an evening in the Historic Stockyards area. Check in was efficient with very friendly service. Room was very nice, clean and comfortable. Walked to the old Stockyards area and enjoyed a wonderful evening and being able to walk back to the hotel after a few pops in the local cowboy bars. Great place - thanks !More</t>
   </si>
   <si>
-    <t>lana444</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r500306717-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1154,9 +1685,6 @@
     <t>Had one day before flying out of DFW, so decided to spend it at the Stockyards.We had a wonderful stay at the Courtyard @ Stockyards. Ice cold air and very clean - everyone very helpful and friendly. Near Billy Bob's and just a short, 2 block walk to many eateries, shops, and bars. Don't miss this area on your next TX stay!More</t>
   </si>
   <si>
-    <t>sherri s</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r500240886-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1172,9 +1700,6 @@
     <t>Great hotel! Within walking distance to stockyards and Billy Bob's is right across the street. Yes, you pay for valet service, but it is well worth every penny. Very friendly and helpful front desk staff. The young lady working at the Bistro Sunday am., gave me my coffee on the house. Thank you!More</t>
   </si>
   <si>
-    <t>Mooneyes2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r500193425-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1190,9 +1715,6 @@
     <t>We had multiple reasons for coming to Ft Worth &amp; one was to hang out at the Stockyards.  Glad we did.....FUN!  This Courtyard is located very nicely for a block walk to the Main St. shops and restaurants and of course, the Stock yards.  Being a new hotel it was clean and customer service was good.  I do see all the negative on the valet parking however I do understand why Courtyard does it.  I appreciate it for guaranteed parking location as well as safety.  There is an option to park on the far parameters of the hotel but did not look safe to me!  The price could be a little less but was something I didn't mind.  Rooms are big and I like that.  We have paid much more at boutique hotels and rooms are very small.  Clean, comfortable and from our third floor window we had a beautiful sunset. Big walk in shower too. I do have to say though....walls are a bit thin.  (Note: you do sign a "no party" form with you arrive).  We were awakened by our neighbors at 1:00 AM.  It stopped once I lightly tapped on wall.  I did not indulge in the Bistro, but looked like they had light options for breakfast as well as happy hour. Starbucks coffee!  Eclectic Western décor throughout so was fun to see.  Enjoyed our stay and hope to come back soon.  I also requested a room...We had multiple reasons for coming to Ft Worth &amp; one was to hang out at the Stockyards.  Glad we did.....FUN!  This Courtyard is located very nicely for a block walk to the Main St. shops and restaurants and of course, the Stock yards.  Being a new hotel it was clean and customer service was good.  I do see all the negative on the valet parking however I do understand why Courtyard does it.  I appreciate it for guaranteed parking location as well as safety.  There is an option to park on the far parameters of the hotel but did not look safe to me!  The price could be a little less but was something I didn't mind.  Rooms are big and I like that.  We have paid much more at boutique hotels and rooms are very small.  Clean, comfortable and from our third floor window we had a beautiful sunset. Big walk in shower too. I do have to say though....walls are a bit thin.  (Note: you do sign a "no party" form with you arrive).  We were awakened by our neighbors at 1:00 AM.  It stopped once I lightly tapped on wall.  I did not indulge in the Bistro, but looked like they had light options for breakfast as well as happy hour. Starbucks coffee!  Eclectic Western décor throughout so was fun to see.  Enjoyed our stay and hope to come back soon.  I also requested a room away from the street as recommended in previous reviews and it was quiet.More</t>
   </si>
   <si>
-    <t>Ge0rgetravels</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r496826117-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1220,9 +1742,6 @@
     <t>Stayed here after having a change in travel plans and going to Fort Worth airport instead of Dallas DFW.  We were able to get rooms at this Marriott Courtyard at the last minute with no problem, and saved about one hundred dollars per night per room over what we were going to pay in Dallas! This is a newer looking hotel in the historic Stockyards area of Fort Worth. There are lots of eating places, especially steak houses as well as shopping and bars all within easy walking distance to this hotel. The rooms are clean and modern with everything you would need. Overall, a great stay and a comfortable nights sleep!!More</t>
   </si>
   <si>
-    <t>JB W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r491512641-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1241,9 +1760,6 @@
     <t>This is ONE HORRIBLE hotel experience. From the rude valet, the unprofessional front desk clerk, the non-existent bag porter for help. Baggage carts stuck together. Hard to pull apart to use. No help available. Generally unfriendly staff. No one greeted you. No one acknowledged my presence. I sat in the bar area while waiting for my friends to arrive. They had been out for the day. Their room had not been cleaned. Bed not changed. Did not vacuum. Trash cans full. Bathroom not cleaned. Dirty washcloths in shower. Toothpaste in sink. Called down to report room not cleaned. Desk clerk never sent any one up. She argued with my friend and made excuses. She ended cleaning up the room before she left. I stayed with the baby. I also called for a clean sheet for the crib. Didn't get one. Called half hour later and asked for the manager. Desk clerk said she could  help. RIGHT! She made excuses.  Said housekeeping was closed. I stated again I wanted a clean sheet. In a few moments she brought one. My parking ticket was not validated when I asked. I had gone there to sit with the baby for a few hours. THIS HOTEL GETS THE REWARD FOR "THIS SUCKS'". For the price paid for this room, IT IS A NASTY PLACE TO STAY! I just want everyone to know.More</t>
   </si>
   <si>
-    <t>jonijmk</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r487998637-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1265,9 +1781,6 @@
     <t>We stayed here three nights in early May mainly for the great location for touring the historic stockyard area.  If going to Billy Bob's, the location is especially good. The hotel is newly built so everything is fresh, clean and modern.  Staff at the hotel was definitely warm and helpful.  All seemed eager to make our stay a good one.  Our king room seemed a bit small although the bathroom itselfwas large. The bed was clean and comfortable. The walls definitely are thin!! We could hear the neighboring guests talking and their tv going.  There is a small area by the front desk that sells various food items which although convenient are extremely overpriced. No need to take advantage of the guests.  Apparently the parking is by valet only and is not free.  Another way to take advantage of guests.All in all the stay was fine.  More pros than cons.More</t>
   </si>
   <si>
-    <t>HikeUpTrails</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r487983798-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1283,7 +1796,196 @@
     <t>Good:- Brand new hotel. Beautifully decorated lobby, reception and rooms with Texas style and modern furniture.  Awesome room and bathroom design; well lit; lots of places to work comfortably; lots of power outlets. Very clean. Quiet rooms. Needs improvement:- Bedsheets are scratchy; use better thread count. No body lotion in room, reception does not have any either and they don't sell any body lotion either! No stores in convenient walking distance where I could buy it. Lobby coffee store only had whole milk (it was lunch time and they ran out of milk). $200 a night is steep for a Courtyard. Area around hotel is little sketch; maybe after it's developed more it will be more lively and it will appear more inviting. More</t>
   </si>
   <si>
-    <t>Marde L</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r485469591-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>485469591</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hotel Great Staff</t>
+  </si>
+  <si>
+    <t>Everyone at this hotel was extremely nice and polite, the rooms were very comfortable with excellent pillows.  The television and Internet service were very good.  It's an easy walk to the stock yard and shopping for the wife.If you have any problems at this hotel ask for Julia she will do everything she can to make sure you have an enjoyable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Everyone at this hotel was extremely nice and polite, the rooms were very comfortable with excellent pillows.  The television and Internet service were very good.  It's an easy walk to the stock yard and shopping for the wife.If you have any problems at this hotel ask for Julia she will do everything she can to make sure you have an enjoyable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r484809610-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>484809610</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel - Great Location</t>
+  </si>
+  <si>
+    <t>As with all Courtyard hotels, the room was nice. The hotel has been recently built, so everything was modern and in great condition. What sets this hotel apart is the location. It is right across the street from Billy Bob's and only a couple of blocks from the other Fort Worth Stockyards attractions.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>As with all Courtyard hotels, the room was nice. The hotel has been recently built, so everything was modern and in great condition. What sets this hotel apart is the location. It is right across the street from Billy Bob's and only a couple of blocks from the other Fort Worth Stockyards attractions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r482432937-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>482432937</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Newer Courtyard Hotel</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel during a recent visit to the Stockyards. It is a newer hotel in a great location for tourists in the Stockyards neighborhood. The biggest downside was the mandatory valet parking. The hotel is very clean and modern.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel during a recent visit to the Stockyards. It is a newer hotel in a great location for tourists in the Stockyards neighborhood. The biggest downside was the mandatory valet parking. The hotel is very clean and modern.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r482300997-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>482300997</t>
+  </si>
+  <si>
+    <t>Nice place but loud in room and forced Valet parking</t>
+  </si>
+  <si>
+    <t>Hotel is well located for stockyards district but not for sleeping. It is located on a busy intersection and if you are unlucky enough to get one of the rooms on the road like we were then you won't get any sleep. It's also loud inside too so walls must be thin. When I mentioned this to lady on check out she said that get these comments a lot. Also, the mandatory  $20 parking is a rip off. You walk out the door and see your car less than 20 feet away from you. Service in the coffee bar was so slow in the morning we gave up waiting and left. The frustrating part about it was it wasn't actually that busyMoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel is well located for stockyards district but not for sleeping. It is located on a busy intersection and if you are unlucky enough to get one of the rooms on the road like we were then you won't get any sleep. It's also loud inside too so walls must be thin. When I mentioned this to lady on check out she said that get these comments a lot. Also, the mandatory  $20 parking is a rip off. You walk out the door and see your car less than 20 feet away from you. Service in the coffee bar was so slow in the morning we gave up waiting and left. The frustrating part about it was it wasn't actually that busyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r476916030-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>476916030</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>New, clean, nicely decorated, good customer service</t>
+  </si>
+  <si>
+    <t>I had the same, annoying issue as everyone else with the high cost of mandatory valet parking.     When I travel on business, valet parking raises a red flag in finances.  I wish the hotel would state that the valet parking charge is mandatory on the invoice.  Check in and out was a breeze, the front desk people I came into contact with were very pleasant and all had smiles.  The restaurant is more of a snack bar.  Breakfast closes early.My room was on the second floor and I could hear the traffic noise outside quite clearly.  I could also hear my next door neighbors.The price and location made up for everything else.  Walking to the Stockyards and Billy Bob's is very easy.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had the same, annoying issue as everyone else with the high cost of mandatory valet parking.     When I travel on business, valet parking raises a red flag in finances.  I wish the hotel would state that the valet parking charge is mandatory on the invoice.  Check in and out was a breeze, the front desk people I came into contact with were very pleasant and all had smiles.  The restaurant is more of a snack bar.  Breakfast closes early.My room was on the second floor and I could hear the traffic noise outside quite clearly.  I could also hear my next door neighbors.The price and location made up for everything else.  Walking to the Stockyards and Billy Bob's is very easy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r475969103-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>475969103</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs   </t>
+  </si>
+  <si>
+    <t>The hotel was nice. I was annoyed at having to pay $20 a night for parking when we parked our own car in a handicap spot right outside the front door.  Also, the toilet seat was not secured properly. The room and bathroom were updated and pleasant. MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was nice. I was annoyed at having to pay $20 a night for parking when we parked our own car in a handicap spot right outside the front door.  Also, the toilet seat was not secured properly. The room and bathroom were updated and pleasant. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r473706785-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>473706785</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>Terrible customer service</t>
+  </si>
+  <si>
+    <t>When it comes to the hotel experience, there are a lot of choices out there. I debated upon booking my hotel whether I should stay at the Courtyard Marriott or the Hyatt. In the end, I booked with Marriott and came to regret that decision. On this visit, I flew in from out of state and was excited to check in. Earlier that day, I checked my bank account and found that Marriott debited double the cost of my stay. Being 1,500 miles away from home, having the money budgeted for this trip is very important. I called and spoke with a front desk attendant who said she would refund the money but never apologized for the inconvenience or hold this placed on my account. I finally went to check in and expected some kind of apology since I was face to face with the woman who double charged my card. The manager was right there and when I asked for my $20 valet fee to be comped for the trouble, she fought back against it. Again, there was no apology considering the strain this extra $250 charge put on me. Instead, she gives me a voucher for a free cup of coffee. I spent my night in a room that heard every sound from the street and the hallway. Upon check out, the same first representative doesn't thank me for staying, doesn't apologize for my experience, doesn't ask how...When it comes to the hotel experience, there are a lot of choices out there. I debated upon booking my hotel whether I should stay at the Courtyard Marriott or the Hyatt. In the end, I booked with Marriott and came to regret that decision. On this visit, I flew in from out of state and was excited to check in. Earlier that day, I checked my bank account and found that Marriott debited double the cost of my stay. Being 1,500 miles away from home, having the money budgeted for this trip is very important. I called and spoke with a front desk attendant who said she would refund the money but never apologized for the inconvenience or hold this placed on my account. I finally went to check in and expected some kind of apology since I was face to face with the woman who double charged my card. The manager was right there and when I asked for my $20 valet fee to be comped for the trouble, she fought back against it. Again, there was no apology considering the strain this extra $250 charge put on me. Instead, she gives me a voucher for a free cup of coffee. I spent my night in a room that heard every sound from the street and the hallway. Upon check out, the same first representative doesn't thank me for staying, doesn't apologize for my experience, doesn't ask how the night went - nothing (mind you, no one was at her desk aside from me). Instead of even a hello or good morning, she says, "do you want to leave everything as is?" I didn't know what that meant so I asked and she explained that some people change cards for the stay to be charged. I declined because they already have two payments for my one night stay. She doesn't say goodbye. She doesn't wish me a good day. The phone rings, she answers it, and then looks at me and says, "you can go." I want to be clear. I understand that mistakes happen but when she spoke to her manager, in front of me, she said "we had so many two nights stays, I just booked them all that way." I wouldn't be surprised if this wasn't the only reservation/card that got messed up.Like I said in the beginning of this review, there are many choices to stay. I travel often and I won't be back to this hotel. After checking out, I chose to go to the Hyatt and told the front desk staff there about my experience. They apologized for just an awful customer service experience (yes, I got an apology from strangers before the person involved). Furthermore, the general manager of the Hyatt left me a personal letter about my situation and offering me any help that I may need. Customer service is everything and this lost me as a customer.  MoreShow less</t>
+  </si>
+  <si>
+    <t>When it comes to the hotel experience, there are a lot of choices out there. I debated upon booking my hotel whether I should stay at the Courtyard Marriott or the Hyatt. In the end, I booked with Marriott and came to regret that decision. On this visit, I flew in from out of state and was excited to check in. Earlier that day, I checked my bank account and found that Marriott debited double the cost of my stay. Being 1,500 miles away from home, having the money budgeted for this trip is very important. I called and spoke with a front desk attendant who said she would refund the money but never apologized for the inconvenience or hold this placed on my account. I finally went to check in and expected some kind of apology since I was face to face with the woman who double charged my card. The manager was right there and when I asked for my $20 valet fee to be comped for the trouble, she fought back against it. Again, there was no apology considering the strain this extra $250 charge put on me. Instead, she gives me a voucher for a free cup of coffee. I spent my night in a room that heard every sound from the street and the hallway. Upon check out, the same first representative doesn't thank me for staying, doesn't apologize for my experience, doesn't ask how...When it comes to the hotel experience, there are a lot of choices out there. I debated upon booking my hotel whether I should stay at the Courtyard Marriott or the Hyatt. In the end, I booked with Marriott and came to regret that decision. On this visit, I flew in from out of state and was excited to check in. Earlier that day, I checked my bank account and found that Marriott debited double the cost of my stay. Being 1,500 miles away from home, having the money budgeted for this trip is very important. I called and spoke with a front desk attendant who said she would refund the money but never apologized for the inconvenience or hold this placed on my account. I finally went to check in and expected some kind of apology since I was face to face with the woman who double charged my card. The manager was right there and when I asked for my $20 valet fee to be comped for the trouble, she fought back against it. Again, there was no apology considering the strain this extra $250 charge put on me. Instead, she gives me a voucher for a free cup of coffee. I spent my night in a room that heard every sound from the street and the hallway. Upon check out, the same first representative doesn't thank me for staying, doesn't apologize for my experience, doesn't ask how the night went - nothing (mind you, no one was at her desk aside from me). Instead of even a hello or good morning, she says, "do you want to leave everything as is?" I didn't know what that meant so I asked and she explained that some people change cards for the stay to be charged. I declined because they already have two payments for my one night stay. She doesn't say goodbye. She doesn't wish me a good day. The phone rings, she answers it, and then looks at me and says, "you can go." I want to be clear. I understand that mistakes happen but when she spoke to her manager, in front of me, she said "we had so many two nights stays, I just booked them all that way." I wouldn't be surprised if this wasn't the only reservation/card that got messed up.Like I said in the beginning of this review, there are many choices to stay. I travel often and I won't be back to this hotel. After checking out, I chose to go to the Hyatt and told the front desk staff there about my experience. They apologized for just an awful customer service experience (yes, I got an apology from strangers before the person involved). Furthermore, the general manager of the Hyatt left me a personal letter about my situation and offering me any help that I may need. Customer service is everything and this lost me as a customer.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r471440196-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>471440196</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>New, Nice, and a little Annoying.</t>
+  </si>
+  <si>
+    <t>The place is new, very new. Much of the stay was enjoyable. The low score is due to the required valet parking. This made it awkward. Valet parking itself doesn't bother me. I even use it on occasions when available. The problem is FORCED valet parking. Then they charge an extra $20 a night for the parking. This awkward arraignment made for an unpleasant stay. I don't want to have to go through a valet every time I need a car. I will return only if this ridiculousness ends. This is not a "fancy" hotel. Courtyard has always been a clean, safe, reasonably priced option for our family. I plan to stay at many other Courtyards in the future, just not this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Dawn G, Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded March 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2017</t>
+  </si>
+  <si>
+    <t>The place is new, very new. Much of the stay was enjoyable. The low score is due to the required valet parking. This made it awkward. Valet parking itself doesn't bother me. I even use it on occasions when available. The problem is FORCED valet parking. Then they charge an extra $20 a night for the parking. This awkward arraignment made for an unpleasant stay. I don't want to have to go through a valet every time I need a car. I will return only if this ridiculousness ends. This is not a "fancy" hotel. Courtyard has always been a clean, safe, reasonably priced option for our family. I plan to stay at many other Courtyards in the future, just not this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r471438885-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>471438885</t>
+  </si>
+  <si>
+    <t>New, Clean BUT!  hit-or-miss Front Desk Personnel</t>
+  </si>
+  <si>
+    <t>Location couldn't be any better only 2 blocks from Stockyards area.  The staff is, apparently, new and no help on dinner suggestions or - really much at all.  NOW &gt; on the other hand, all of the valets are up to snuff and quite good and helpful.  There's a coffee shop/bar that is just weird, across from the desk.  It's open whenever, rarely staffed - not really consistent w/ Marriott brand.  The place is brand new so smells great and all.  Our last night, there was a guy hammering or pounding forever - til we finally called the desk.  Kind of flimsy for a Marriott!  Watch out in the tub - ooo-Boy is it slick!  Above average of a local hotel; but, not a value at Marriott prices for downscale property.MoreShow less</t>
+  </si>
+  <si>
+    <t>Location couldn't be any better only 2 blocks from Stockyards area.  The staff is, apparently, new and no help on dinner suggestions or - really much at all.  NOW &gt; on the other hand, all of the valets are up to snuff and quite good and helpful.  There's a coffee shop/bar that is just weird, across from the desk.  It's open whenever, rarely staffed - not really consistent w/ Marriott brand.  The place is brand new so smells great and all.  Our last night, there was a guy hammering or pounding forever - til we finally called the desk.  Kind of flimsy for a Marriott!  Watch out in the tub - ooo-Boy is it slick!  Above average of a local hotel; but, not a value at Marriott prices for downscale property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r470119150-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>470119150</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t>Perfect Location for Stockyards Fun</t>
+  </si>
+  <si>
+    <t>The location is perfect for spending a evening strolling between the variety of bars in the Stockyards area.  You can park and walk throughout the area without effort.  The hotel staff is over and above when it comes to customer service.  Friendly, helpful and that is with all of staff we encountered.  Rooms were clean and spacious enough to meet our needs.  Complimentary light breakfast in the lobby was perfect before getting back on the road the next day.  Would recommend when staying in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Dawn G, Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded March 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2017</t>
+  </si>
+  <si>
+    <t>The location is perfect for spending a evening strolling between the variety of bars in the Stockyards area.  You can park and walk throughout the area without effort.  The hotel staff is over and above when it comes to customer service.  Friendly, helpful and that is with all of staff we encountered.  Rooms were clean and spacious enough to meet our needs.  Complimentary light breakfast in the lobby was perfect before getting back on the road the next day.  Would recommend when staying in the area.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r468115832-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
@@ -1301,21 +2003,9 @@
     <t>Ideally located one block from the famous Stockyards where there's fun every night.  The hotel is new and well decorated.  The staff is friendly and accommodating.  My room was on the 3rd floor and faced the pool area.  While I could hear the occasional police siren from my room, I could not hear the revelers at the Stockyards.  The room and bathroom are large and included a microwave, refrigerator and coffee maker.  The bathroom has a great walk in shower.  The first floor has a bar/restaurant which is very nice, a seating area and an outdoor pool.  The gym has several treadmills, elliptical gliders and some free weights.   There is a mandatory $20.00 valet parking fee per night for registered guests, which is the same as they charge anyone who wants to park while visiting the area.  This seems excessive and guests shouldn't have to pay to park.  The hotel is new, but one of the elevators was out of service for my entire visit.  The one that was working was VERY slow...  All things considered, this is a good choice if you are in the area.MoreShow less</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
-    <t>Dawn G, Manager at Courtyard Fort Worth Historic Stockyards, responded to this reviewResponded March 27, 2017</t>
-  </si>
-  <si>
-    <t>Responded March 27, 2017</t>
-  </si>
-  <si>
     <t>Ideally located one block from the famous Stockyards where there's fun every night.  The hotel is new and well decorated.  The staff is friendly and accommodating.  My room was on the 3rd floor and faced the pool area.  While I could hear the occasional police siren from my room, I could not hear the revelers at the Stockyards.  The room and bathroom are large and included a microwave, refrigerator and coffee maker.  The bathroom has a great walk in shower.  The first floor has a bar/restaurant which is very nice, a seating area and an outdoor pool.  The gym has several treadmills, elliptical gliders and some free weights.   There is a mandatory $20.00 valet parking fee per night for registered guests, which is the same as they charge anyone who wants to park while visiting the area.  This seems excessive and guests shouldn't have to pay to park.  The hotel is new, but one of the elevators was out of service for my entire visit.  The one that was working was VERY slow...  All things considered, this is a good choice if you are in the area.More</t>
   </si>
   <si>
-    <t>bus_visitor</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r462314312-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1343,9 +2033,6 @@
     <t>The staff here were extremely friendly and helpful. The hotel is quite new and it is clean with a very nice modern look. For going to the stockyards, it is a great location - a short walk away.We had 2 major problems. One might be due to its newness. There is no complimentary coffee in the lobby however they do have a coffee bar. We will willing to pay. I did not anticipate it would take 30 minutes to get coffee. Apparently, there was a long list of orders ahead of us and the server did not mention a wait to us. I got really grumpy waiting 30 minutes for my morning coffee. Especially after a bad night.The second problem is a design decision flaw. The walls just do not have enough sound proofing. If you're neighbors are quiet (or the rooms are vacant), no problem. We had neighbors who were chatty - very chatty. They were not using loud voice or shouting at all. Nonetheless, the walls provided so little sound insulation we heard everything  while they talked well beyond our desired sleep time.More</t>
   </si>
   <si>
-    <t>tomuchtravel</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r460211503-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1362,9 +2049,6 @@
   </si>
   <si>
     <t>this hotel is new. So great. Wasn't crowded. Rooms are very large. I would worry about the weekends and the "partying" crowd. Nice fire pit in the back and poolMandatory valet a bit expensive.bartender couldn't make a cosmopolitan?friendly staff. NO WATER PRESSURE AT ALL!!!!More</t>
-  </si>
-  <si>
-    <t>Rick S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r459668944-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
@@ -1415,9 +2099,6 @@
 If you're staying in the area I would DEFINITELY recommend you staying here on your next stay....We stayed here while see a show at Billy Bob's.  The location was GREAT!  We loved the convenience of where it was located in relationship to Billy Bob's.  As it turns out the hotel had just opened and EVERYTHING was new.  We had a great stay and was very please with everything.  Being that I stay in hotels often I would give other travelers the following advice:1. Parking - we were forced to valet park and it cost us $20.  I'm not sure the policy on this but we were running late and we needed to get into our room and over to the show.  Find out if this is mandatory or if there is a way to park your own car for free.2. If you get a hotel room facing the street beware it might be a little loud.  Nothing on the hotel's end.  Just a busy street in a busy part of town where alot of people are out and about.  Not a bad thing...just a heads up.3. Our reservation did not come with a complimentary breakfast.  You might be able to get that included but we weren't.  Just a heads up in the chance you wake up hungry!  (There are a ton of places to eat AND the hotel had a nice looking bistro to eat at)If you're staying in the area I would DEFINITELY recommend you staying here on your next stay.  The staff was GREAT!  The room was GREAT!  There were just some odd things that I didn't expect but they won't stop me from staying there again in the future.More</t>
   </si>
   <si>
-    <t>leenlogan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r457018458-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1434,9 +2115,6 @@
   </si>
   <si>
     <t>Stayed here on opening day as well, for one night. The hotel is brand new, the rooms and furniture were amazing with great Texas decor. Didn't love the idea of valet-only at the hotel but it is in downtown afterall and property is scarce in places like this. The entire valet staff was amazing (Darrin-manager), greeted us and answered all questions and was very familiar with things to do. I appreciate it greatly and love that they have valet. Hope other hotels in the area follow suit. Felt secure knowing my vehicle is watched after 24/7. Will certainly be back. Great staff altogether!More</t>
-  </si>
-  <si>
-    <t>Delicio</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d10728538-r456900632-Courtyard_Fort_Worth_Historic_Stockyards-Fort_Worth_Texas.html</t>
@@ -1956,47 +2634,43 @@
       <c r="A2" t="n">
         <v>65329</v>
       </c>
-      <c r="B2" t="n">
-        <v>127506</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2007,197 +2681,183 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" t="s">
-        <v>56</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65329</v>
       </c>
-      <c r="B3" t="n">
-        <v>10166</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>53</v>
-      </c>
-      <c r="O3" t="s">
-        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65329</v>
       </c>
-      <c r="B4" t="n">
-        <v>657</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" t="s">
-        <v>73</v>
-      </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65329</v>
       </c>
-      <c r="B5" t="n">
-        <v>127507</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
         <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2208,130 +2868,114 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>83</v>
-      </c>
-      <c r="X5" t="s">
-        <v>84</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65329</v>
       </c>
-      <c r="B6" t="n">
-        <v>127508</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
         <v>80</v>
       </c>
-      <c r="K6" t="s">
-        <v>89</v>
-      </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="O6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>3</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>69</v>
+      </c>
+      <c r="X6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y6" t="s">
         <v>83</v>
-      </c>
-      <c r="X6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65329</v>
       </c>
-      <c r="B7" t="n">
-        <v>23536</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2342,14 +2986,10 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>100</v>
-      </c>
-      <c r="X7" t="s">
-        <v>101</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -2362,37 +3002,37 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2404,131 +3044,117 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="Y8" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65329</v>
       </c>
-      <c r="B9" t="n">
-        <v>197</v>
-      </c>
-      <c r="C9" t="s">
-        <v>112</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="O9" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="X9" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="Y9" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65329</v>
       </c>
-      <c r="B10" t="n">
-        <v>127509</v>
-      </c>
-      <c r="C10" t="s">
-        <v>122</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="O10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2540,13 +3166,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="X10" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="Y10" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
@@ -2559,186 +3185,166 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="X11" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="Y11" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65329</v>
       </c>
-      <c r="B12" t="n">
-        <v>13290</v>
-      </c>
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="X12" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="Y12" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65329</v>
       </c>
-      <c r="B13" t="n">
-        <v>127510</v>
-      </c>
-      <c r="C13" t="s">
-        <v>150</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="O13" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="n">
         <v>5</v>
       </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>5</v>
@@ -2747,67 +3353,65 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="X13" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="Y13" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65329</v>
       </c>
-      <c r="B14" t="n">
-        <v>127511</v>
-      </c>
-      <c r="C14" t="s">
-        <v>159</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>5</v>
@@ -2816,192 +3420,182 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="X14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Y14" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65329</v>
       </c>
-      <c r="B15" t="n">
-        <v>2415</v>
-      </c>
-      <c r="C15" t="s">
-        <v>167</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="X15" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="Y15" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65329</v>
       </c>
-      <c r="B16" t="n">
-        <v>58952</v>
-      </c>
-      <c r="C16" t="s">
-        <v>176</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>161</v>
+      </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="X16" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="Y16" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65329</v>
       </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>185</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="J17" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="O17" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3013,131 +3607,117 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="X17" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="Y17" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65329</v>
       </c>
-      <c r="B18" t="n">
-        <v>127512</v>
-      </c>
-      <c r="C18" t="s">
-        <v>195</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="O18" t="s">
-        <v>108</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="X18" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="Y18" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65329</v>
       </c>
-      <c r="B19" t="n">
-        <v>127513</v>
-      </c>
-      <c r="C19" t="s">
-        <v>204</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3149,125 +3729,123 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="X19" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="Y19" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65329</v>
       </c>
-      <c r="B20" t="n">
-        <v>12010</v>
-      </c>
-      <c r="C20" t="s">
-        <v>212</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="J20" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
       <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="X20" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="Y20" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65329</v>
       </c>
-      <c r="B21" t="n">
-        <v>127514</v>
-      </c>
-      <c r="C21" t="s">
-        <v>221</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="J21" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="K21" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="O21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3279,330 +3857,310 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="X21" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="Y21" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65329</v>
       </c>
-      <c r="B22" t="n">
-        <v>31885</v>
-      </c>
-      <c r="C22" t="s">
-        <v>230</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="J22" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="O22" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="X22" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="Y22" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65329</v>
       </c>
-      <c r="B23" t="n">
-        <v>13936</v>
-      </c>
-      <c r="C23" t="s">
-        <v>239</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="J23" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="K23" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="O23" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="X23" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="Y23" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65329</v>
       </c>
-      <c r="B24" t="n">
-        <v>127515</v>
-      </c>
-      <c r="C24" t="s">
-        <v>245</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="J24" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="K24" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="O24" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="X24" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="Y24" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65329</v>
       </c>
-      <c r="B25" t="n">
-        <v>127516</v>
-      </c>
-      <c r="C25" t="s">
-        <v>254</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="J25" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="K25" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="O25" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="X25" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="Y25" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65329</v>
       </c>
-      <c r="B26" t="n">
-        <v>127517</v>
-      </c>
-      <c r="C26" t="s">
-        <v>263</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="J26" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="K26" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="O26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3614,193 +4172,195 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="X26" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="Y26" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65329</v>
       </c>
-      <c r="B27" t="n">
-        <v>127518</v>
-      </c>
-      <c r="C27" t="s">
-        <v>273</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="J27" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="K27" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>240</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="X27" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="Y27" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>65329</v>
       </c>
-      <c r="B28" t="n">
-        <v>127519</v>
-      </c>
-      <c r="C28" t="s">
-        <v>282</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="J28" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="K28" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="O28" t="s">
-        <v>118</v>
-      </c>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="X28" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="Y28" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>65329</v>
       </c>
-      <c r="B29" t="n">
-        <v>127520</v>
-      </c>
-      <c r="C29" t="s">
-        <v>288</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="J29" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="K29" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="O29" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
         <v>5</v>
@@ -3809,126 +4369,122 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
       <c r="X29" t="s">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="Y29" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>65329</v>
       </c>
-      <c r="B30" t="n">
-        <v>127521</v>
-      </c>
-      <c r="C30" t="s">
-        <v>297</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="J30" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="K30" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="O30" t="s">
-        <v>92</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q30" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="X30" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="Y30" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>65329</v>
       </c>
-      <c r="B31" t="n">
-        <v>68819</v>
-      </c>
-      <c r="C31" t="s">
-        <v>304</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="J31" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="K31" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>278</v>
+      </c>
+      <c r="O31" t="s">
+        <v>96</v>
+      </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
@@ -3939,60 +4495,56 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="X31" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="Y31" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>65329</v>
       </c>
-      <c r="B32" t="n">
-        <v>1433</v>
-      </c>
-      <c r="C32" t="s">
-        <v>311</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="J32" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="K32" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>317</v>
+        <v>240</v>
       </c>
       <c r="O32" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4003,174 +4555,195 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>285</v>
+      </c>
+      <c r="X32" t="s">
+        <v>286</v>
+      </c>
       <c r="Y32" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>65329</v>
       </c>
-      <c r="B33" t="n">
-        <v>127522</v>
-      </c>
-      <c r="C33" t="s">
-        <v>319</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="J33" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="K33" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="L33" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="O33" t="s">
-        <v>118</v>
-      </c>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>293</v>
+      </c>
+      <c r="X33" t="s">
+        <v>294</v>
+      </c>
       <c r="Y33" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>65329</v>
       </c>
-      <c r="B34" t="n">
-        <v>7271</v>
-      </c>
-      <c r="C34" t="s">
-        <v>326</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>328</v>
-      </c>
-      <c r="J34" t="s"/>
-      <c r="K34" t="s"/>
-      <c r="L34" t="s"/>
-      <c r="M34" t="s"/>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
+        <v>297</v>
+      </c>
+      <c r="J34" t="s">
+        <v>298</v>
+      </c>
+      <c r="K34" t="s">
+        <v>299</v>
+      </c>
+      <c r="L34" t="s">
+        <v>300</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>278</v>
+      </c>
+      <c r="O34" t="s">
+        <v>96</v>
+      </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>301</v>
+      </c>
+      <c r="X34" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>65329</v>
       </c>
-      <c r="B35" t="n">
-        <v>68254</v>
-      </c>
-      <c r="C35" t="s">
-        <v>329</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="J35" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="K35" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="O35" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
+      <c r="R35" t="s"/>
       <c r="S35" t="n">
         <v>5</v>
       </c>
@@ -4181,189 +4754,181 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>293</v>
+      </c>
+      <c r="X35" t="s">
+        <v>294</v>
+      </c>
       <c r="Y35" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>65329</v>
       </c>
-      <c r="B36" t="n">
-        <v>127523</v>
-      </c>
-      <c r="C36" t="s">
-        <v>335</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="J36" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="K36" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="L36" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="O36" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>316</v>
+      </c>
+      <c r="X36" t="s">
+        <v>317</v>
+      </c>
       <c r="Y36" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>65329</v>
       </c>
-      <c r="B37" t="n">
-        <v>63966</v>
-      </c>
-      <c r="C37" t="s">
-        <v>342</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="J37" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="K37" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="L37" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
-      <c r="N37" t="s">
-        <v>348</v>
-      </c>
-      <c r="O37" t="s">
-        <v>118</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="X37" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="Y37" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>65329</v>
       </c>
-      <c r="B38" t="n">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>185</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="J38" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="K38" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="O38" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4375,284 +4940,252 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="X38" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="Y38" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>65329</v>
       </c>
-      <c r="B39" t="n">
-        <v>127524</v>
-      </c>
-      <c r="C39" t="s">
-        <v>358</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="J39" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="K39" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="L39" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="O39" t="s">
-        <v>54</v>
-      </c>
-      <c r="P39" t="s"/>
+        <v>161</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
       <c r="Q39" t="s"/>
       <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="X39" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="Y39" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>65329</v>
       </c>
-      <c r="B40" t="n">
-        <v>127525</v>
-      </c>
-      <c r="C40" t="s">
-        <v>367</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="J40" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="K40" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="L40" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="O40" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="P40" t="s"/>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="X40" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="Y40" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>65329</v>
       </c>
-      <c r="B41" t="n">
-        <v>127526</v>
-      </c>
-      <c r="C41" t="s">
-        <v>374</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="J41" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="K41" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="L41" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="O41" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="P41" t="s"/>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q41" t="s"/>
       <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="X41" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="Y41" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>65329</v>
       </c>
-      <c r="B42" t="n">
-        <v>127527</v>
-      </c>
-      <c r="C42" t="s">
-        <v>380</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="J42" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="K42" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="L42" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="O42" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>4</v>
-      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>4</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
@@ -4663,188 +5196,176 @@
         <v>365</v>
       </c>
       <c r="Y42" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>65329</v>
       </c>
-      <c r="B43" t="n">
-        <v>92184</v>
-      </c>
-      <c r="C43" t="s">
-        <v>386</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="J43" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="K43" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="L43" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>392</v>
+        <v>309</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
-      <c r="S43" t="n">
-        <v>4</v>
-      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>4</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="X43" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="Y43" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>65329</v>
       </c>
-      <c r="B44" t="n">
-        <v>51225</v>
-      </c>
-      <c r="C44" t="s">
-        <v>396</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="J44" t="s">
-        <v>399</v>
+        <v>369</v>
       </c>
       <c r="K44" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="L44" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>392</v>
+        <v>309</v>
       </c>
       <c r="O44" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="P44" t="s"/>
-      <c r="Q44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
       <c r="R44" t="s"/>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="X44" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="Y44" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>65329</v>
       </c>
-      <c r="B45" t="n">
-        <v>127528</v>
-      </c>
-      <c r="C45" t="s">
-        <v>403</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="J45" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="K45" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="L45" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>409</v>
+        <v>309</v>
       </c>
       <c r="O45" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
@@ -4852,7 +5373,7 @@
       </c>
       <c r="R45" t="s"/>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
@@ -4862,60 +5383,56 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="X45" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="Y45" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>65329</v>
       </c>
-      <c r="B46" t="n">
-        <v>127529</v>
-      </c>
-      <c r="C46" t="s">
-        <v>411</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="J46" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="K46" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="L46" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>409</v>
+        <v>309</v>
       </c>
       <c r="O46" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4933,287 +5450,251 @@
         <v>394</v>
       </c>
       <c r="Y46" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>65329</v>
       </c>
-      <c r="B47" t="n">
-        <v>48160</v>
-      </c>
-      <c r="C47" t="s">
-        <v>417</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="J47" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="K47" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="L47" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="O47" t="s">
-        <v>54</v>
-      </c>
-      <c r="P47" t="n">
-        <v>4</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
       <c r="R47" t="s"/>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>4</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="X47" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="Y47" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>65329</v>
       </c>
-      <c r="B48" t="n">
-        <v>127530</v>
-      </c>
-      <c r="C48" t="s">
-        <v>427</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="J48" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="K48" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="L48" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
-      </c>
-      <c r="N48" t="s">
-        <v>433</v>
-      </c>
-      <c r="O48" t="s">
-        <v>54</v>
-      </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
       <c r="R48" t="s"/>
       <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>3</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="X48" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="Y48" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>65329</v>
       </c>
-      <c r="B49" t="n">
-        <v>127531</v>
-      </c>
-      <c r="C49" t="s">
-        <v>437</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="J49" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="K49" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="L49" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="O49" t="s">
-        <v>54</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
       <c r="R49" t="s"/>
       <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>5</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="X49" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="Y49" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>65329</v>
       </c>
-      <c r="B50" t="n">
-        <v>5140</v>
-      </c>
-      <c r="C50" t="s">
-        <v>444</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="J50" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="K50" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="L50" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="O50" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
+      <c r="R50" t="s"/>
       <c r="S50" t="n">
         <v>5</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="X50" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="Y50" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
     </row>
     <row r="51">
@@ -5226,46 +5707,44 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="J51" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="K51" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="L51" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="O51" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q51" t="s"/>
       <c r="R51" t="s"/>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
         <v>5</v>
@@ -5274,61 +5753,53 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="X51" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="Y51" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>65329</v>
       </c>
-      <c r="B52" t="n">
-        <v>127532</v>
-      </c>
-      <c r="C52" t="s">
-        <v>457</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="J52" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="K52" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="L52" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
-      </c>
-      <c r="N52" t="s">
-        <v>433</v>
-      </c>
-      <c r="O52" t="s">
-        <v>73</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
       <c r="R52" t="s"/>
@@ -5339,60 +5810,56 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="X52" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="Y52" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>65329</v>
       </c>
-      <c r="B53" t="n">
-        <v>127533</v>
-      </c>
-      <c r="C53" t="s">
-        <v>464</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="J53" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="K53" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="L53" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="O53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5404,13 +5871,2598 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="X53" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="Y53" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>446</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>447</v>
+      </c>
+      <c r="J54" t="s">
+        <v>448</v>
+      </c>
+      <c r="K54" t="s">
+        <v>449</v>
+      </c>
+      <c r="L54" t="s">
+        <v>450</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>451</v>
+      </c>
+      <c r="O54" t="s">
+        <v>68</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>443</v>
+      </c>
+      <c r="X54" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>453</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>454</v>
+      </c>
+      <c r="J55" t="s">
+        <v>448</v>
+      </c>
+      <c r="K55" t="s">
+        <v>455</v>
+      </c>
+      <c r="L55" t="s">
+        <v>456</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>451</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>443</v>
+      </c>
+      <c r="X55" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>458</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>459</v>
+      </c>
+      <c r="J56" t="s">
+        <v>460</v>
+      </c>
+      <c r="K56" t="s">
+        <v>461</v>
+      </c>
+      <c r="L56" t="s">
+        <v>462</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>443</v>
+      </c>
+      <c r="X56" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>464</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>465</v>
+      </c>
+      <c r="J57" t="s">
+        <v>466</v>
+      </c>
+      <c r="K57" t="s">
+        <v>467</v>
+      </c>
+      <c r="L57" t="s">
+        <v>468</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
         <v>469</v>
+      </c>
+      <c r="O57" t="s">
+        <v>68</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>470</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>471</v>
+      </c>
+      <c r="J58" t="s">
+        <v>472</v>
+      </c>
+      <c r="K58" t="s">
+        <v>473</v>
+      </c>
+      <c r="L58" t="s">
+        <v>474</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>469</v>
+      </c>
+      <c r="O58" t="s">
+        <v>82</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>476</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>477</v>
+      </c>
+      <c r="J59" t="s">
+        <v>478</v>
+      </c>
+      <c r="K59" t="s">
+        <v>479</v>
+      </c>
+      <c r="L59" t="s">
+        <v>480</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>481</v>
+      </c>
+      <c r="O59" t="s">
+        <v>82</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>482</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>483</v>
+      </c>
+      <c r="J60" t="s">
+        <v>484</v>
+      </c>
+      <c r="K60" t="s">
+        <v>485</v>
+      </c>
+      <c r="L60" t="s">
+        <v>486</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>469</v>
+      </c>
+      <c r="O60" t="s">
+        <v>68</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>487</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>488</v>
+      </c>
+      <c r="J61" t="s">
+        <v>489</v>
+      </c>
+      <c r="K61" t="s">
+        <v>490</v>
+      </c>
+      <c r="L61" t="s">
+        <v>491</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>469</v>
+      </c>
+      <c r="O61" t="s">
+        <v>82</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>492</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>493</v>
+      </c>
+      <c r="J62" t="s">
+        <v>494</v>
+      </c>
+      <c r="K62" t="s">
+        <v>495</v>
+      </c>
+      <c r="L62" t="s">
+        <v>496</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>469</v>
+      </c>
+      <c r="O62" t="s">
+        <v>96</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>498</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>499</v>
+      </c>
+      <c r="J63" t="s">
+        <v>494</v>
+      </c>
+      <c r="K63" t="s">
+        <v>500</v>
+      </c>
+      <c r="L63" t="s">
+        <v>501</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>469</v>
+      </c>
+      <c r="O63" t="s">
+        <v>96</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>502</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>503</v>
+      </c>
+      <c r="J64" t="s">
+        <v>504</v>
+      </c>
+      <c r="K64" t="s">
+        <v>255</v>
+      </c>
+      <c r="L64" t="s">
+        <v>505</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>481</v>
+      </c>
+      <c r="O64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>506</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>507</v>
+      </c>
+      <c r="J65" t="s">
+        <v>508</v>
+      </c>
+      <c r="K65" t="s">
+        <v>509</v>
+      </c>
+      <c r="L65" t="s">
+        <v>510</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>481</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>511</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>512</v>
+      </c>
+      <c r="J66" t="s">
+        <v>508</v>
+      </c>
+      <c r="K66" t="s">
+        <v>513</v>
+      </c>
+      <c r="L66" t="s">
+        <v>514</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>481</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>515</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>516</v>
+      </c>
+      <c r="J67" t="s">
+        <v>517</v>
+      </c>
+      <c r="K67" t="s">
+        <v>518</v>
+      </c>
+      <c r="L67" t="s">
+        <v>519</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>481</v>
+      </c>
+      <c r="O67" t="s">
+        <v>82</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>520</v>
+      </c>
+      <c r="X67" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>523</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>524</v>
+      </c>
+      <c r="J68" t="s">
+        <v>525</v>
+      </c>
+      <c r="K68" t="s">
+        <v>526</v>
+      </c>
+      <c r="L68" t="s">
+        <v>527</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>451</v>
+      </c>
+      <c r="O68" t="s">
+        <v>82</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>528</v>
+      </c>
+      <c r="X68" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>531</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>532</v>
+      </c>
+      <c r="J69" t="s">
+        <v>533</v>
+      </c>
+      <c r="K69" t="s">
+        <v>534</v>
+      </c>
+      <c r="L69" t="s">
+        <v>535</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>451</v>
+      </c>
+      <c r="O69" t="s">
+        <v>82</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>528</v>
+      </c>
+      <c r="X69" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>537</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>538</v>
+      </c>
+      <c r="J70" t="s">
+        <v>539</v>
+      </c>
+      <c r="K70" t="s">
+        <v>540</v>
+      </c>
+      <c r="L70" t="s">
+        <v>541</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>451</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>542</v>
+      </c>
+      <c r="X70" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>545</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>546</v>
+      </c>
+      <c r="J71" t="s">
+        <v>547</v>
+      </c>
+      <c r="K71" t="s">
+        <v>548</v>
+      </c>
+      <c r="L71" t="s">
+        <v>549</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>451</v>
+      </c>
+      <c r="O71" t="s">
+        <v>82</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>542</v>
+      </c>
+      <c r="X71" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>551</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>552</v>
+      </c>
+      <c r="J72" t="s">
+        <v>547</v>
+      </c>
+      <c r="K72" t="s">
+        <v>553</v>
+      </c>
+      <c r="L72" t="s">
+        <v>554</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>451</v>
+      </c>
+      <c r="O72" t="s">
+        <v>82</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>542</v>
+      </c>
+      <c r="X72" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>556</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>557</v>
+      </c>
+      <c r="J73" t="s">
+        <v>547</v>
+      </c>
+      <c r="K73" t="s">
+        <v>558</v>
+      </c>
+      <c r="L73" t="s">
+        <v>559</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>451</v>
+      </c>
+      <c r="O73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>542</v>
+      </c>
+      <c r="X73" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>561</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>562</v>
+      </c>
+      <c r="J74" t="s">
+        <v>563</v>
+      </c>
+      <c r="K74" t="s">
+        <v>564</v>
+      </c>
+      <c r="L74" t="s">
+        <v>565</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>566</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>567</v>
+      </c>
+      <c r="X74" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>570</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>571</v>
+      </c>
+      <c r="J75" t="s">
+        <v>572</v>
+      </c>
+      <c r="K75" t="s">
+        <v>573</v>
+      </c>
+      <c r="L75" t="s">
+        <v>574</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>566</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>567</v>
+      </c>
+      <c r="X75" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>576</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>577</v>
+      </c>
+      <c r="J76" t="s">
+        <v>578</v>
+      </c>
+      <c r="K76" t="s">
+        <v>579</v>
+      </c>
+      <c r="L76" t="s">
+        <v>580</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>581</v>
+      </c>
+      <c r="O76" t="s">
+        <v>82</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>567</v>
+      </c>
+      <c r="X76" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>583</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>584</v>
+      </c>
+      <c r="J77" t="s">
+        <v>578</v>
+      </c>
+      <c r="K77" t="s">
+        <v>585</v>
+      </c>
+      <c r="L77" t="s">
+        <v>586</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>581</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>567</v>
+      </c>
+      <c r="X77" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>588</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>589</v>
+      </c>
+      <c r="J78" t="s">
+        <v>590</v>
+      </c>
+      <c r="K78" t="s">
+        <v>591</v>
+      </c>
+      <c r="L78" t="s">
+        <v>592</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>581</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>567</v>
+      </c>
+      <c r="X78" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>594</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>595</v>
+      </c>
+      <c r="J79" t="s">
+        <v>596</v>
+      </c>
+      <c r="K79" t="s">
+        <v>597</v>
+      </c>
+      <c r="L79" t="s">
+        <v>598</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>599</v>
+      </c>
+      <c r="O79" t="s">
+        <v>82</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>567</v>
+      </c>
+      <c r="X79" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>601</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>602</v>
+      </c>
+      <c r="J80" t="s">
+        <v>603</v>
+      </c>
+      <c r="K80" t="s">
+        <v>604</v>
+      </c>
+      <c r="L80" t="s">
+        <v>605</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>599</v>
+      </c>
+      <c r="O80" t="s">
+        <v>82</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>567</v>
+      </c>
+      <c r="X80" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>607</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>608</v>
+      </c>
+      <c r="J81" t="s">
+        <v>603</v>
+      </c>
+      <c r="K81" t="s">
+        <v>609</v>
+      </c>
+      <c r="L81" t="s">
+        <v>610</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>581</v>
+      </c>
+      <c r="O81" t="s">
+        <v>82</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>567</v>
+      </c>
+      <c r="X81" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>612</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>613</v>
+      </c>
+      <c r="J82" t="s">
+        <v>614</v>
+      </c>
+      <c r="K82" t="s">
+        <v>615</v>
+      </c>
+      <c r="L82" t="s">
+        <v>616</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>599</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>567</v>
+      </c>
+      <c r="X82" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>618</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>619</v>
+      </c>
+      <c r="J83" t="s">
+        <v>620</v>
+      </c>
+      <c r="K83" t="s">
+        <v>621</v>
+      </c>
+      <c r="L83" t="s">
+        <v>622</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>599</v>
+      </c>
+      <c r="O83" t="s">
+        <v>82</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>567</v>
+      </c>
+      <c r="X83" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>624</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>625</v>
+      </c>
+      <c r="J84" t="s">
+        <v>626</v>
+      </c>
+      <c r="K84" t="s">
+        <v>627</v>
+      </c>
+      <c r="L84" t="s">
+        <v>628</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>599</v>
+      </c>
+      <c r="O84" t="s">
+        <v>96</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>567</v>
+      </c>
+      <c r="X84" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>630</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>631</v>
+      </c>
+      <c r="J85" t="s">
+        <v>632</v>
+      </c>
+      <c r="K85" t="s">
+        <v>633</v>
+      </c>
+      <c r="L85" t="s">
+        <v>634</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>635</v>
+      </c>
+      <c r="O85" t="s">
+        <v>68</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>636</v>
+      </c>
+      <c r="X85" t="s">
+        <v>637</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>639</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>640</v>
+      </c>
+      <c r="J86" t="s">
+        <v>632</v>
+      </c>
+      <c r="K86" t="s">
+        <v>641</v>
+      </c>
+      <c r="L86" t="s">
+        <v>642</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>635</v>
+      </c>
+      <c r="O86" t="s">
+        <v>82</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>567</v>
+      </c>
+      <c r="X86" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>644</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>645</v>
+      </c>
+      <c r="J87" t="s">
+        <v>646</v>
+      </c>
+      <c r="K87" t="s">
+        <v>647</v>
+      </c>
+      <c r="L87" t="s">
+        <v>648</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>635</v>
+      </c>
+      <c r="O87" t="s">
+        <v>96</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>649</v>
+      </c>
+      <c r="X87" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>652</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>653</v>
+      </c>
+      <c r="J88" t="s">
+        <v>654</v>
+      </c>
+      <c r="K88" t="s">
+        <v>655</v>
+      </c>
+      <c r="L88" t="s">
+        <v>656</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>635</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>649</v>
+      </c>
+      <c r="X88" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>658</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>659</v>
+      </c>
+      <c r="J89" t="s">
+        <v>660</v>
+      </c>
+      <c r="K89" t="s">
+        <v>661</v>
+      </c>
+      <c r="L89" t="s">
+        <v>662</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>663</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>664</v>
+      </c>
+      <c r="X89" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>667</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>668</v>
+      </c>
+      <c r="J90" t="s">
+        <v>669</v>
+      </c>
+      <c r="K90" t="s">
+        <v>670</v>
+      </c>
+      <c r="L90" t="s">
+        <v>671</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>663</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>664</v>
+      </c>
+      <c r="X90" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>673</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>674</v>
+      </c>
+      <c r="J91" t="s">
+        <v>675</v>
+      </c>
+      <c r="K91" t="s">
+        <v>676</v>
+      </c>
+      <c r="L91" t="s">
+        <v>677</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>663</v>
+      </c>
+      <c r="O91" t="s">
+        <v>82</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>664</v>
+      </c>
+      <c r="X91" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>679</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>680</v>
+      </c>
+      <c r="J92" t="s">
+        <v>681</v>
+      </c>
+      <c r="K92" t="s">
+        <v>682</v>
+      </c>
+      <c r="L92" t="s">
+        <v>683</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>663</v>
+      </c>
+      <c r="O92" t="s">
+        <v>82</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>664</v>
+      </c>
+      <c r="X92" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>685</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>686</v>
+      </c>
+      <c r="J93" t="s">
+        <v>687</v>
+      </c>
+      <c r="K93" t="s">
+        <v>688</v>
+      </c>
+      <c r="L93" t="s">
+        <v>689</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>663</v>
+      </c>
+      <c r="O93" t="s">
+        <v>68</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>664</v>
+      </c>
+      <c r="X93" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>65329</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>691</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>692</v>
+      </c>
+      <c r="J94" t="s">
+        <v>687</v>
+      </c>
+      <c r="K94" t="s">
+        <v>693</v>
+      </c>
+      <c r="L94" t="s">
+        <v>694</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>663</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>664</v>
+      </c>
+      <c r="X94" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>695</v>
       </c>
     </row>
   </sheetData>
